--- a/artfynd/A 39168-2021.xlsx
+++ b/artfynd/A 39168-2021.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111368031</v>
+        <v>111368051</v>
       </c>
       <c r="B2" t="n">
         <v>77515</v>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>550062.8222276447</v>
+        <v>549879.900762578</v>
       </c>
       <c r="R2" t="n">
-        <v>7176384.421149604</v>
+        <v>7176283.005802887</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -755,7 +755,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>12:32</t>
+          <t>11:31</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -765,7 +765,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>12:32</t>
+          <t>11:31</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111368065</v>
+        <v>111368040</v>
       </c>
       <c r="B3" t="n">
-        <v>89423</v>
+        <v>77515</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,21 +808,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>550079.7716065857</v>
+        <v>550140.4310960311</v>
       </c>
       <c r="R3" t="n">
-        <v>7176524.580282663</v>
+        <v>7176482.383431778</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -867,7 +867,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>12:08</t>
+          <t>12:23</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -877,7 +877,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>12:08</t>
+          <t>12:23</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111368060</v>
+        <v>111368030</v>
       </c>
       <c r="B4" t="n">
-        <v>56543</v>
+        <v>56398</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -920,31 +920,27 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>103021</v>
+        <v>100109</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>upprörd, varnande</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -953,10 +949,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>549874.1005536993</v>
+        <v>550062.8222276447</v>
       </c>
       <c r="R4" t="n">
-        <v>7176374.882427582</v>
+        <v>7176384.421149604</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -988,7 +984,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>12:32</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -998,7 +994,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>12:32</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1025,10 +1021,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111368040</v>
+        <v>111368026</v>
       </c>
       <c r="B5" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1041,34 +1037,39 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr">
         <is>
           <t>Kojholmen, Ås lm</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>550140.4310960311</v>
+        <v>550021.0272902437</v>
       </c>
       <c r="R5" t="n">
-        <v>7176482.383431778</v>
+        <v>7176347.795661078</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1100,7 +1101,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>12:23</t>
+          <t>12:35</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1110,7 +1111,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>12:23</t>
+          <t>12:35</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1137,7 +1138,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111368027</v>
+        <v>111368072</v>
       </c>
       <c r="B6" t="n">
         <v>77515</v>
@@ -1177,10 +1178,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>550021.0131254582</v>
+        <v>549964.6102468905</v>
       </c>
       <c r="R6" t="n">
-        <v>7176348.650979794</v>
+        <v>7176470.059016126</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1212,7 +1213,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:01</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1222,7 +1223,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:01</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1249,10 +1250,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111368080</v>
+        <v>111368062</v>
       </c>
       <c r="B7" t="n">
-        <v>77515</v>
+        <v>78542</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1261,25 +1262,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6425</v>
+        <v>229748</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gytterlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Protopannaria pezizoides</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Weber) P.M.Jørg. &amp; S.Ekman</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1289,10 +1290,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>549936.548302589</v>
+        <v>549845.5417482131</v>
       </c>
       <c r="R7" t="n">
-        <v>7176405.858146392</v>
+        <v>7176340.616809647</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1324,7 +1325,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>11:48</t>
+          <t>11:36</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1334,7 +1335,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>11:48</t>
+          <t>11:36</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1361,10 +1362,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111368063</v>
+        <v>111368067</v>
       </c>
       <c r="B8" t="n">
-        <v>78605</v>
+        <v>89401</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1373,25 +1374,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6462</v>
+        <v>1108</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1401,10 +1402,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>549846.3981210478</v>
+        <v>550061.031779538</v>
       </c>
       <c r="R8" t="n">
-        <v>7176340.630942217</v>
+        <v>7176518.281073146</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1436,7 +1437,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>12:06</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1446,7 +1447,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>12:06</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1473,10 +1474,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111368068</v>
+        <v>111368063</v>
       </c>
       <c r="B9" t="n">
-        <v>77515</v>
+        <v>78605</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1485,25 +1486,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6425</v>
+        <v>6462</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1513,10 +1514,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>550061.031779538</v>
+        <v>549846.3981210478</v>
       </c>
       <c r="R9" t="n">
-        <v>7176518.281073146</v>
+        <v>7176340.630942217</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1548,7 +1549,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>12:06</t>
+          <t>11:36</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1558,7 +1559,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>12:06</t>
+          <t>11:36</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1585,10 +1586,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111368073</v>
+        <v>111368046</v>
       </c>
       <c r="B10" t="n">
-        <v>89405</v>
+        <v>77515</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1601,21 +1602,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1625,10 +1626,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>549986.9422517557</v>
+        <v>550103.3250106032</v>
       </c>
       <c r="R10" t="n">
-        <v>7176440.485243178</v>
+        <v>7176498.877932535</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1660,7 +1661,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1670,7 +1671,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1697,10 +1698,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111368033</v>
+        <v>111368081</v>
       </c>
       <c r="B11" t="n">
-        <v>73689</v>
+        <v>77515</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1713,21 +1714,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>308</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1737,10 +1738,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>550093.7441570745</v>
+        <v>549887.6681565105</v>
       </c>
       <c r="R11" t="n">
-        <v>7176456.798653707</v>
+        <v>7176383.234151412</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1772,7 +1773,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>12:28</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1782,7 +1783,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>12:28</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1809,10 +1810,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111368076</v>
+        <v>111368050</v>
       </c>
       <c r="B12" t="n">
-        <v>78605</v>
+        <v>73696</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1821,25 +1822,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6462</v>
+        <v>6440</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1849,10 +1850,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>549966.1103741666</v>
+        <v>549878.9243151343</v>
       </c>
       <c r="R12" t="n">
-        <v>7176431.157499645</v>
+        <v>7176290.26201662</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1884,7 +1885,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>11:56</t>
+          <t>11:31</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1894,7 +1895,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>11:56</t>
+          <t>11:31</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1921,10 +1922,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111368066</v>
+        <v>111368076</v>
       </c>
       <c r="B13" t="n">
-        <v>77515</v>
+        <v>78605</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1933,25 +1934,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6425</v>
+        <v>6462</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1961,10 +1962,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>550076.8595679611</v>
+        <v>549966.1103741666</v>
       </c>
       <c r="R13" t="n">
-        <v>7176519.398969295</v>
+        <v>7176431.157499645</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -1996,7 +1997,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>12:08</t>
+          <t>11:56</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2006,7 +2007,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>12:08</t>
+          <t>11:56</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2145,10 +2146,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111368055</v>
+        <v>111368044</v>
       </c>
       <c r="B15" t="n">
-        <v>73696</v>
+        <v>77515</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2161,21 +2162,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2185,10 +2186,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>549910.0227821248</v>
+        <v>550090.5625663771</v>
       </c>
       <c r="R15" t="n">
-        <v>7176274.519875553</v>
+        <v>7176467.867670191</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2220,7 +2221,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>12:19</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2230,7 +2231,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>12:19</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2257,10 +2258,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111368051</v>
+        <v>111368047</v>
       </c>
       <c r="B16" t="n">
-        <v>77515</v>
+        <v>89405</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2273,21 +2274,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2297,10 +2298,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>549879.900762578</v>
+        <v>550104.0632435277</v>
       </c>
       <c r="R16" t="n">
-        <v>7176283.005802887</v>
+        <v>7176531.827197511</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2332,7 +2333,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>11:31</t>
+          <t>12:12</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2342,7 +2343,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>11:31</t>
+          <t>12:12</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2369,10 +2370,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111368075</v>
+        <v>111368037</v>
       </c>
       <c r="B17" t="n">
-        <v>78446</v>
+        <v>89423</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2385,21 +2386,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>2080</v>
+        <v>5432</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Skorpgelélav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Rostania occultata</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Bagl.) Otálora, P.M.Jørg. &amp; Wedin</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2409,10 +2410,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>549966.1457474855</v>
+        <v>550138.4038488384</v>
       </c>
       <c r="R17" t="n">
-        <v>7176429.019260814</v>
+        <v>7176475.505636688</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2444,7 +2445,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>11:56</t>
+          <t>12:23</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2454,12 +2455,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>11:56</t>
-        </is>
-      </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>Rostania pallida</t>
+          <t>12:23</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2470,16 +2466,6 @@
       </c>
       <c r="AG17" t="b">
         <v>0</v>
-      </c>
-      <c r="AQ17" t="inlineStr">
-        <is>
-          <t>Isak Vahlström</t>
-        </is>
-      </c>
-      <c r="AR17" t="inlineStr">
-        <is>
-          <t>2306231156</t>
-        </is>
       </c>
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
@@ -2496,10 +2482,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111368077</v>
+        <v>111368028</v>
       </c>
       <c r="B18" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2512,34 +2498,39 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P18" t="inlineStr">
         <is>
           <t>Kojholmen, Ås lm</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>549958.3678805742</v>
+        <v>550031.1691488524</v>
       </c>
       <c r="R18" t="n">
-        <v>7176433.168246322</v>
+        <v>7176356.091382794</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2571,7 +2562,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>11:56</t>
+          <t>12:34</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2581,7 +2572,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>11:56</t>
+          <t>12:34</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2608,10 +2599,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111368082</v>
+        <v>111368027</v>
       </c>
       <c r="B19" t="n">
-        <v>89405</v>
+        <v>77515</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2624,21 +2615,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2648,10 +2639,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>549887.6681565105</v>
+        <v>550021.0131254582</v>
       </c>
       <c r="R19" t="n">
-        <v>7176383.234151412</v>
+        <v>7176348.650979794</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2683,7 +2674,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>12:35</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2693,7 +2684,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>12:35</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2720,10 +2711,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111368046</v>
+        <v>111368082</v>
       </c>
       <c r="B20" t="n">
-        <v>77515</v>
+        <v>89405</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2736,21 +2727,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2760,10 +2751,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>550103.3250106032</v>
+        <v>549887.6681565105</v>
       </c>
       <c r="R20" t="n">
-        <v>7176498.877932535</v>
+        <v>7176383.234151412</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2795,7 +2786,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2805,7 +2796,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2832,10 +2823,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111368078</v>
+        <v>111368036</v>
       </c>
       <c r="B21" t="n">
-        <v>57196</v>
+        <v>77515</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2848,38 +2839,34 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>206004</v>
+        <v>6425</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Skogshare</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Lepus timidus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
           <t>Kojholmen, Ås lm</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>549936.548302589</v>
+        <v>550126.7345429868</v>
       </c>
       <c r="R21" t="n">
-        <v>7176405.858146392</v>
+        <v>7176456.062714714</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -2911,7 +2898,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>11:48</t>
+          <t>12:26</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2921,7 +2908,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>11:48</t>
+          <t>12:26</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2948,10 +2935,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111368067</v>
+        <v>111368025</v>
       </c>
       <c r="B22" t="n">
-        <v>89401</v>
+        <v>77515</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2964,21 +2951,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1108</v>
+        <v>6425</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2988,10 +2975,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>550061.031779538</v>
+        <v>549996.6526590078</v>
       </c>
       <c r="R22" t="n">
-        <v>7176518.281073146</v>
+        <v>7176319.586486283</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -3023,7 +3010,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>12:06</t>
+          <t>12:39</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3033,7 +3020,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>12:06</t>
+          <t>12:39</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3172,10 +3159,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111368036</v>
+        <v>111368059</v>
       </c>
       <c r="B24" t="n">
-        <v>77515</v>
+        <v>73694</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3184,25 +3171,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6425</v>
+        <v>6486</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skuggnål</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca sphaerocephala</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Nádv.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3212,10 +3199,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>550126.7345429868</v>
+        <v>549878.7893641718</v>
       </c>
       <c r="R24" t="n">
-        <v>7176456.062714714</v>
+        <v>7176376.243170704</v>
       </c>
       <c r="S24" t="n">
         <v>25</v>
@@ -3247,7 +3234,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>12:26</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3257,7 +3244,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>12:26</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3284,7 +3271,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111368074</v>
+        <v>111368057</v>
       </c>
       <c r="B25" t="n">
         <v>77515</v>
@@ -3324,10 +3311,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>549991.2735226378</v>
+        <v>549928.1908050156</v>
       </c>
       <c r="R25" t="n">
-        <v>7176437.562583845</v>
+        <v>7176263.697660933</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3359,7 +3346,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>11:24</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3369,7 +3356,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>11:24</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3396,10 +3383,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111368062</v>
+        <v>111368075</v>
       </c>
       <c r="B26" t="n">
-        <v>78542</v>
+        <v>78446</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3408,25 +3395,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>229748</v>
+        <v>2080</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Gytterlav</t>
+          <t>Skorpgelélav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Protopannaria pezizoides</t>
+          <t>Rostania occultata</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Weber) P.M.Jørg. &amp; S.Ekman</t>
+          <t>(Bagl.) Otálora, P.M.Jørg. &amp; Wedin</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3436,10 +3423,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>549845.5417482131</v>
+        <v>549966.1457474855</v>
       </c>
       <c r="R26" t="n">
-        <v>7176340.616809647</v>
+        <v>7176429.019260814</v>
       </c>
       <c r="S26" t="n">
         <v>25</v>
@@ -3471,7 +3458,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>11:56</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3481,7 +3468,12 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>11:56</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>Rostania pallida</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3492,6 +3484,16 @@
       </c>
       <c r="AG26" t="b">
         <v>0</v>
+      </c>
+      <c r="AQ26" t="inlineStr">
+        <is>
+          <t>Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AR26" t="inlineStr">
+        <is>
+          <t>2306231156</t>
+        </is>
       </c>
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
@@ -3508,10 +3510,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111368061</v>
+        <v>111368035</v>
       </c>
       <c r="B27" t="n">
-        <v>77515</v>
+        <v>81248</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3524,21 +3526,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6425</v>
+        <v>1312</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3548,10 +3550,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>549872.7453947841</v>
+        <v>550127.9977607847</v>
       </c>
       <c r="R27" t="n">
-        <v>7176379.137769157</v>
+        <v>7176457.366965696</v>
       </c>
       <c r="S27" t="n">
         <v>25</v>
@@ -3583,7 +3585,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>12:26</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3593,7 +3595,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>12:26</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3620,10 +3622,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111368043</v>
+        <v>111368041</v>
       </c>
       <c r="B28" t="n">
-        <v>78612</v>
+        <v>85715</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3632,25 +3634,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6464</v>
+        <v>510</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3660,10 +3662,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>550090.5625663771</v>
+        <v>550134.6000315297</v>
       </c>
       <c r="R28" t="n">
-        <v>7176467.867670191</v>
+        <v>7176472.44817721</v>
       </c>
       <c r="S28" t="n">
         <v>25</v>
@@ -3695,7 +3697,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>12:19</t>
+          <t>12:22</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3705,7 +3707,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>12:19</t>
+          <t>12:22</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3844,10 +3846,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111368041</v>
+        <v>111368055</v>
       </c>
       <c r="B30" t="n">
-        <v>85715</v>
+        <v>73696</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3860,21 +3862,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>510</v>
+        <v>6440</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3884,10 +3886,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>550134.6000315297</v>
+        <v>549910.0227821248</v>
       </c>
       <c r="R30" t="n">
-        <v>7176472.44817721</v>
+        <v>7176274.519875553</v>
       </c>
       <c r="S30" t="n">
         <v>25</v>
@@ -3919,7 +3921,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>12:22</t>
+          <t>11:26</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -3929,7 +3931,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>12:22</t>
+          <t>11:26</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3956,10 +3958,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111368050</v>
+        <v>111368048</v>
       </c>
       <c r="B31" t="n">
-        <v>73696</v>
+        <v>77515</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3972,21 +3974,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -3996,10 +3998,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>549878.9243151343</v>
+        <v>550102.7432948623</v>
       </c>
       <c r="R31" t="n">
-        <v>7176290.26201662</v>
+        <v>7176533.944055461</v>
       </c>
       <c r="S31" t="n">
         <v>25</v>
@@ -4031,7 +4033,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>11:31</t>
+          <t>12:11</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -4041,7 +4043,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>11:31</t>
+          <t>12:11</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4068,10 +4070,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111368064</v>
+        <v>111368078</v>
       </c>
       <c r="B32" t="n">
-        <v>89423</v>
+        <v>57196</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4084,34 +4086,38 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>5432</v>
+        <v>206004</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Skogshare</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lepus timidus</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr"/>
+          <t>Linnaeus, 1758</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P32" t="inlineStr">
         <is>
           <t>Kojholmen, Ås lm</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>549829.9126936665</v>
+        <v>549936.548302589</v>
       </c>
       <c r="R32" t="n">
-        <v>7176301.430993037</v>
+        <v>7176405.858146392</v>
       </c>
       <c r="S32" t="n">
         <v>25</v>
@@ -4143,7 +4149,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>11:34</t>
+          <t>11:48</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4153,7 +4159,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>11:34</t>
+          <t>11:48</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4180,10 +4186,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111368037</v>
+        <v>111368043</v>
       </c>
       <c r="B33" t="n">
-        <v>89423</v>
+        <v>78612</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4192,25 +4198,25 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>5432</v>
+        <v>6464</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4220,10 +4226,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>550138.4038488384</v>
+        <v>550090.5625663771</v>
       </c>
       <c r="R33" t="n">
-        <v>7176475.505636688</v>
+        <v>7176467.867670191</v>
       </c>
       <c r="S33" t="n">
         <v>25</v>
@@ -4255,7 +4261,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>12:23</t>
+          <t>12:19</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4265,7 +4271,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>12:23</t>
+          <t>12:19</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4292,10 +4298,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111368029</v>
+        <v>111368052</v>
       </c>
       <c r="B34" t="n">
-        <v>77515</v>
+        <v>89423</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4308,21 +4314,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4332,10 +4338,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>550030.3127802074</v>
+        <v>549902.2163396301</v>
       </c>
       <c r="R34" t="n">
-        <v>7176356.077197819</v>
+        <v>7176280.379899665</v>
       </c>
       <c r="S34" t="n">
         <v>25</v>
@@ -4367,7 +4373,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>12:34</t>
+          <t>11:29</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4377,7 +4383,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>12:34</t>
+          <t>11:29</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4404,7 +4410,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111368072</v>
+        <v>111368080</v>
       </c>
       <c r="B35" t="n">
         <v>77515</v>
@@ -4444,10 +4450,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>549964.6102468905</v>
+        <v>549936.548302589</v>
       </c>
       <c r="R35" t="n">
-        <v>7176470.059016126</v>
+        <v>7176405.858146392</v>
       </c>
       <c r="S35" t="n">
         <v>25</v>
@@ -4479,7 +4485,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>12:01</t>
+          <t>11:48</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4489,7 +4495,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>12:01</t>
+          <t>11:48</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4516,10 +4522,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111368035</v>
+        <v>111368060</v>
       </c>
       <c r="B36" t="n">
-        <v>81248</v>
+        <v>56543</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4532,34 +4538,43 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1312</v>
+        <v>103021</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>upprörd, varnande</t>
+        </is>
+      </c>
       <c r="P36" t="inlineStr">
         <is>
           <t>Kojholmen, Ås lm</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>550127.9977607847</v>
+        <v>549874.1005536993</v>
       </c>
       <c r="R36" t="n">
-        <v>7176457.366965696</v>
+        <v>7176374.882427582</v>
       </c>
       <c r="S36" t="n">
         <v>25</v>
@@ -4591,7 +4606,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>12:26</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4601,7 +4616,7 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>12:26</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4628,10 +4643,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111368047</v>
+        <v>111368077</v>
       </c>
       <c r="B37" t="n">
-        <v>89405</v>
+        <v>77515</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4644,21 +4659,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4668,10 +4683,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>550104.0632435277</v>
+        <v>549958.3678805742</v>
       </c>
       <c r="R37" t="n">
-        <v>7176531.827197511</v>
+        <v>7176433.168246322</v>
       </c>
       <c r="S37" t="n">
         <v>25</v>
@@ -4703,7 +4718,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>12:12</t>
+          <t>11:56</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -4713,7 +4728,7 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>12:12</t>
+          <t>11:56</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4740,7 +4755,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111368048</v>
+        <v>111368056</v>
       </c>
       <c r="B38" t="n">
         <v>77515</v>
@@ -4780,10 +4795,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>550102.7432948623</v>
+        <v>549909.1310579075</v>
       </c>
       <c r="R38" t="n">
-        <v>7176533.944055461</v>
+        <v>7176276.644072821</v>
       </c>
       <c r="S38" t="n">
         <v>25</v>
@@ -4815,7 +4830,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>12:11</t>
+          <t>11:26</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -4825,7 +4840,7 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>12:11</t>
+          <t>11:26</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4852,7 +4867,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111368044</v>
+        <v>111368061</v>
       </c>
       <c r="B39" t="n">
         <v>77515</v>
@@ -4892,10 +4907,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>550090.5625663771</v>
+        <v>549872.7453947841</v>
       </c>
       <c r="R39" t="n">
-        <v>7176467.867670191</v>
+        <v>7176379.137769157</v>
       </c>
       <c r="S39" t="n">
         <v>25</v>
@@ -4927,7 +4942,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>12:19</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -4937,7 +4952,7 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>12:19</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -4964,10 +4979,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111368056</v>
+        <v>111368073</v>
       </c>
       <c r="B40" t="n">
-        <v>77515</v>
+        <v>89405</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -4980,21 +4995,21 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -5004,10 +5019,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>549909.1310579075</v>
+        <v>549986.9422517557</v>
       </c>
       <c r="R40" t="n">
-        <v>7176276.644072821</v>
+        <v>7176440.485243178</v>
       </c>
       <c r="S40" t="n">
         <v>25</v>
@@ -5039,7 +5054,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>11:59</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
@@ -5049,7 +5064,7 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>11:59</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5076,10 +5091,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111368070</v>
+        <v>111368064</v>
       </c>
       <c r="B41" t="n">
-        <v>77515</v>
+        <v>89423</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5092,21 +5107,21 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5116,10 +5131,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>550009.0934819671</v>
+        <v>549829.9126936665</v>
       </c>
       <c r="R41" t="n">
-        <v>7176499.454964816</v>
+        <v>7176301.430993037</v>
       </c>
       <c r="S41" t="n">
         <v>25</v>
@@ -5151,7 +5166,7 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>11:34</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
@@ -5161,7 +5176,7 @@
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>11:34</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5188,10 +5203,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111368053</v>
+        <v>111368066</v>
       </c>
       <c r="B42" t="n">
-        <v>73701</v>
+        <v>77515</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5204,21 +5219,21 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>1467</v>
+        <v>6425</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Rödbrun blekspik</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Sclerophora coniophaea</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Norman) J.Mattsson &amp; Middelb.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5228,10 +5243,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>549900.8964279072</v>
+        <v>550076.8595679611</v>
       </c>
       <c r="R42" t="n">
-        <v>7176282.497020906</v>
+        <v>7176519.398969295</v>
       </c>
       <c r="S42" t="n">
         <v>25</v>
@@ -5263,7 +5278,7 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>12:08</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
@@ -5273,7 +5288,7 @@
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>12:08</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5300,10 +5315,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111368071</v>
+        <v>111368074</v>
       </c>
       <c r="B43" t="n">
-        <v>73689</v>
+        <v>77515</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5316,21 +5331,21 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>308</v>
+        <v>6425</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5340,10 +5355,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>549966.7510875309</v>
+        <v>549991.2735226378</v>
       </c>
       <c r="R43" t="n">
-        <v>7176470.094432743</v>
+        <v>7176437.562583845</v>
       </c>
       <c r="S43" t="n">
         <v>25</v>
@@ -5375,7 +5390,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>12:01</t>
+          <t>11:59</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
@@ -5385,7 +5400,7 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>12:01</t>
+          <t>11:59</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5412,10 +5427,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111368069</v>
+        <v>111368029</v>
       </c>
       <c r="B44" t="n">
-        <v>89419</v>
+        <v>77515</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5428,21 +5443,21 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>1204</v>
+        <v>6425</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5452,10 +5467,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>550009.0934819671</v>
+        <v>550030.3127802074</v>
       </c>
       <c r="R44" t="n">
-        <v>7176499.454964816</v>
+        <v>7176356.077197819</v>
       </c>
       <c r="S44" t="n">
         <v>25</v>
@@ -5487,7 +5502,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:34</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
@@ -5497,7 +5512,7 @@
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:34</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5524,10 +5539,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111368025</v>
+        <v>111368071</v>
       </c>
       <c r="B45" t="n">
-        <v>77515</v>
+        <v>73689</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5540,21 +5555,21 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>6425</v>
+        <v>308</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5564,10 +5579,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>549996.6526590078</v>
+        <v>549966.7510875309</v>
       </c>
       <c r="R45" t="n">
-        <v>7176319.586486283</v>
+        <v>7176470.094432743</v>
       </c>
       <c r="S45" t="n">
         <v>25</v>
@@ -5599,7 +5614,7 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>12:39</t>
+          <t>12:01</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
@@ -5609,7 +5624,7 @@
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>12:39</t>
+          <t>12:01</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5636,10 +5651,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111368028</v>
+        <v>111368069</v>
       </c>
       <c r="B46" t="n">
-        <v>56398</v>
+        <v>89419</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5652,39 +5667,34 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>100109</v>
+        <v>1204</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P46" t="inlineStr">
         <is>
           <t>Kojholmen, Ås lm</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>550031.1691488524</v>
+        <v>550009.0934819671</v>
       </c>
       <c r="R46" t="n">
-        <v>7176356.091382794</v>
+        <v>7176499.454964816</v>
       </c>
       <c r="S46" t="n">
         <v>25</v>
@@ -5716,7 +5726,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>12:34</t>
+          <t>12:04</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
@@ -5726,7 +5736,7 @@
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>12:34</t>
+          <t>12:04</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5753,10 +5763,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111368038</v>
+        <v>111368065</v>
       </c>
       <c r="B47" t="n">
-        <v>96368</v>
+        <v>89423</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5765,25 +5775,25 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>221952</v>
+        <v>5432</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5793,10 +5803,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>550140.4310960311</v>
+        <v>550079.7716065857</v>
       </c>
       <c r="R47" t="n">
-        <v>7176482.383431778</v>
+        <v>7176524.580282663</v>
       </c>
       <c r="S47" t="n">
         <v>25</v>
@@ -5828,7 +5838,7 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>12:23</t>
+          <t>12:08</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
@@ -5838,7 +5848,7 @@
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>12:23</t>
+          <t>12:08</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -5865,7 +5875,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111368081</v>
+        <v>111368070</v>
       </c>
       <c r="B48" t="n">
         <v>77515</v>
@@ -5905,10 +5915,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>549887.6681565105</v>
+        <v>550009.0934819671</v>
       </c>
       <c r="R48" t="n">
-        <v>7176383.234151412</v>
+        <v>7176499.454964816</v>
       </c>
       <c r="S48" t="n">
         <v>25</v>
@@ -5940,7 +5950,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>12:04</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
@@ -5950,7 +5960,7 @@
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>12:04</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -5977,10 +5987,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111368030</v>
+        <v>111368053</v>
       </c>
       <c r="B49" t="n">
-        <v>56398</v>
+        <v>73701</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -5993,39 +6003,34 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>100109</v>
+        <v>1467</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Rödbrun blekspik</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Sclerophora coniophaea</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Norman) J.Mattsson &amp; Middelb.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P49" t="inlineStr">
         <is>
           <t>Kojholmen, Ås lm</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>550062.8222276447</v>
+        <v>549900.8964279072</v>
       </c>
       <c r="R49" t="n">
-        <v>7176384.421149604</v>
+        <v>7176282.497020906</v>
       </c>
       <c r="S49" t="n">
         <v>25</v>
@@ -6057,7 +6062,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>12:32</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
@@ -6067,7 +6072,7 @@
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>12:32</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -6094,10 +6099,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111368052</v>
+        <v>111368033</v>
       </c>
       <c r="B50" t="n">
-        <v>89423</v>
+        <v>73689</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6110,21 +6115,21 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>5432</v>
+        <v>308</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -6134,10 +6139,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>549902.2163396301</v>
+        <v>550093.7441570745</v>
       </c>
       <c r="R50" t="n">
-        <v>7176280.379899665</v>
+        <v>7176456.798653707</v>
       </c>
       <c r="S50" t="n">
         <v>25</v>
@@ -6169,7 +6174,7 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>11:29</t>
+          <t>12:28</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
@@ -6179,7 +6184,7 @@
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>11:29</t>
+          <t>12:28</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -6206,10 +6211,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111368059</v>
+        <v>111368034</v>
       </c>
       <c r="B51" t="n">
-        <v>73694</v>
+        <v>77515</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6218,25 +6223,25 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>6486</v>
+        <v>6425</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Skuggnål</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Chaenotheca sphaerocephala</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Nádv.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -6246,10 +6251,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>549878.7893641718</v>
+        <v>550092.9020021709</v>
       </c>
       <c r="R51" t="n">
-        <v>7176376.243170704</v>
+        <v>7176455.929162641</v>
       </c>
       <c r="S51" t="n">
         <v>25</v>
@@ -6281,7 +6286,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>12:28</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
@@ -6291,7 +6296,7 @@
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>12:28</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6318,7 +6323,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111368057</v>
+        <v>111368031</v>
       </c>
       <c r="B52" t="n">
         <v>77515</v>
@@ -6358,10 +6363,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>549928.1908050156</v>
+        <v>550062.8222276447</v>
       </c>
       <c r="R52" t="n">
-        <v>7176263.697660933</v>
+        <v>7176384.421149604</v>
       </c>
       <c r="S52" t="n">
         <v>25</v>
@@ -6393,7 +6398,7 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>11:24</t>
+          <t>12:32</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
@@ -6403,7 +6408,7 @@
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>11:24</t>
+          <t>12:32</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6430,7 +6435,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111368034</v>
+        <v>111368068</v>
       </c>
       <c r="B53" t="n">
         <v>77515</v>
@@ -6470,10 +6475,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>550092.9020021709</v>
+        <v>550061.031779538</v>
       </c>
       <c r="R53" t="n">
-        <v>7176455.929162641</v>
+        <v>7176518.281073146</v>
       </c>
       <c r="S53" t="n">
         <v>25</v>
@@ -6505,7 +6510,7 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>12:28</t>
+          <t>12:06</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
@@ -6515,7 +6520,7 @@
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>12:28</t>
+          <t>12:06</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6542,10 +6547,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111368026</v>
+        <v>111368054</v>
       </c>
       <c r="B54" t="n">
-        <v>56398</v>
+        <v>95532</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6554,43 +6559,38 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>100109</v>
+        <v>221945</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P54" t="inlineStr">
         <is>
           <t>Kojholmen, Ås lm</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>550021.0272902437</v>
+        <v>549910.0086488514</v>
       </c>
       <c r="R54" t="n">
-        <v>7176347.795661078</v>
+        <v>7176275.375214851</v>
       </c>
       <c r="S54" t="n">
         <v>25</v>
@@ -6622,7 +6622,7 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>11:26</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
@@ -6632,7 +6632,7 @@
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>11:26</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6659,10 +6659,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111368054</v>
+        <v>111368038</v>
       </c>
       <c r="B55" t="n">
-        <v>95532</v>
+        <v>96368</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6675,21 +6675,21 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>221945</v>
+        <v>221952</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6699,10 +6699,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>549910.0086488514</v>
+        <v>550140.4310960311</v>
       </c>
       <c r="R55" t="n">
-        <v>7176275.375214851</v>
+        <v>7176482.383431778</v>
       </c>
       <c r="S55" t="n">
         <v>25</v>
@@ -6734,7 +6734,7 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>12:23</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
@@ -6744,7 +6744,7 @@
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>12:23</t>
         </is>
       </c>
       <c r="AD55" t="b">

--- a/artfynd/A 39168-2021.xlsx
+++ b/artfynd/A 39168-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111368051</v>
+        <v>111368071</v>
       </c>
       <c r="B2" t="n">
-        <v>77515</v>
+        <v>73689</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6425</v>
+        <v>308</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>549879.900762578</v>
+        <v>549966.7510875309</v>
       </c>
       <c r="R2" t="n">
-        <v>7176283.005802887</v>
+        <v>7176470.094432743</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -755,7 +755,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>11:31</t>
+          <t>12:01</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -765,7 +765,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>11:31</t>
+          <t>12:01</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -792,7 +792,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111368040</v>
+        <v>111368046</v>
       </c>
       <c r="B3" t="n">
         <v>77515</v>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>550140.4310960311</v>
+        <v>550103.3250106032</v>
       </c>
       <c r="R3" t="n">
-        <v>7176482.383431778</v>
+        <v>7176498.877932535</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -867,7 +867,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>12:23</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -877,7 +877,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>12:23</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111368030</v>
+        <v>111368049</v>
       </c>
       <c r="B4" t="n">
-        <v>56398</v>
+        <v>89405</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -920,39 +920,34 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P4" t="inlineStr">
         <is>
           <t>Kojholmen, Ås lm</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>550062.8222276447</v>
+        <v>550076.0670580198</v>
       </c>
       <c r="R4" t="n">
-        <v>7176384.421149604</v>
+        <v>7176515.536051848</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -984,7 +979,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>12:32</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -994,7 +989,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>12:32</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1021,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111368026</v>
+        <v>111368062</v>
       </c>
       <c r="B5" t="n">
-        <v>56398</v>
+        <v>78542</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1033,43 +1028,38 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100109</v>
+        <v>229748</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Gytterlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Protopannaria pezizoides</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Weber) P.M.Jørg. &amp; S.Ekman</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P5" t="inlineStr">
         <is>
           <t>Kojholmen, Ås lm</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>550021.0272902437</v>
+        <v>549845.5417482131</v>
       </c>
       <c r="R5" t="n">
-        <v>7176347.795661078</v>
+        <v>7176340.616809647</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1101,7 +1091,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>11:36</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1111,7 +1101,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>11:36</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1138,7 +1128,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111368072</v>
+        <v>111368077</v>
       </c>
       <c r="B6" t="n">
         <v>77515</v>
@@ -1178,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>549964.6102468905</v>
+        <v>549958.3678805742</v>
       </c>
       <c r="R6" t="n">
-        <v>7176470.059016126</v>
+        <v>7176433.168246322</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1213,7 +1203,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>12:01</t>
+          <t>11:56</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1223,7 +1213,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>12:01</t>
+          <t>11:56</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1250,10 +1240,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111368062</v>
+        <v>111368076</v>
       </c>
       <c r="B7" t="n">
-        <v>78542</v>
+        <v>78605</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1266,21 +1256,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>229748</v>
+        <v>6462</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Gytterlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Protopannaria pezizoides</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Weber) P.M.Jørg. &amp; S.Ekman</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1290,10 +1280,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>549845.5417482131</v>
+        <v>549966.1103741666</v>
       </c>
       <c r="R7" t="n">
-        <v>7176340.616809647</v>
+        <v>7176431.157499645</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1325,7 +1315,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>11:56</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1335,7 +1325,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>11:56</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1362,10 +1352,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111368067</v>
+        <v>111368037</v>
       </c>
       <c r="B8" t="n">
-        <v>89401</v>
+        <v>89423</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1378,21 +1368,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1108</v>
+        <v>5432</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1402,10 +1392,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>550061.031779538</v>
+        <v>550138.4038488384</v>
       </c>
       <c r="R8" t="n">
-        <v>7176518.281073146</v>
+        <v>7176475.505636688</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1437,7 +1427,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>12:06</t>
+          <t>12:23</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1447,7 +1437,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>12:06</t>
+          <t>12:23</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1474,10 +1464,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111368063</v>
+        <v>111368025</v>
       </c>
       <c r="B9" t="n">
-        <v>78605</v>
+        <v>77515</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1486,25 +1476,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6462</v>
+        <v>6425</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1514,10 +1504,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>549846.3981210478</v>
+        <v>549996.6526590078</v>
       </c>
       <c r="R9" t="n">
-        <v>7176340.630942217</v>
+        <v>7176319.586486283</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1549,7 +1539,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>12:39</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1559,7 +1549,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>12:39</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1586,10 +1576,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111368046</v>
+        <v>111368043</v>
       </c>
       <c r="B10" t="n">
-        <v>77515</v>
+        <v>78612</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1598,25 +1588,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>6464</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1626,10 +1616,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>550103.3250106032</v>
+        <v>550090.5625663771</v>
       </c>
       <c r="R10" t="n">
-        <v>7176498.877932535</v>
+        <v>7176467.867670191</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1661,7 +1651,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>12:19</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1671,7 +1661,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>12:19</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1698,10 +1688,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111368081</v>
+        <v>111368064</v>
       </c>
       <c r="B11" t="n">
-        <v>77515</v>
+        <v>89423</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1714,21 +1704,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1738,10 +1728,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>549887.6681565105</v>
+        <v>549829.9126936665</v>
       </c>
       <c r="R11" t="n">
-        <v>7176383.234151412</v>
+        <v>7176301.430993037</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1773,7 +1763,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>11:34</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1783,7 +1773,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>11:34</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1810,10 +1800,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111368050</v>
+        <v>111368060</v>
       </c>
       <c r="B12" t="n">
-        <v>73696</v>
+        <v>56543</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1826,34 +1816,43 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6440</v>
+        <v>103021</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>upprörd, varnande</t>
+        </is>
+      </c>
       <c r="P12" t="inlineStr">
         <is>
           <t>Kojholmen, Ås lm</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>549878.9243151343</v>
+        <v>549874.1005536993</v>
       </c>
       <c r="R12" t="n">
-        <v>7176290.26201662</v>
+        <v>7176374.882427582</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1885,7 +1884,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>11:31</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1895,7 +1894,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>11:31</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1922,10 +1921,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111368076</v>
+        <v>111368082</v>
       </c>
       <c r="B13" t="n">
-        <v>78605</v>
+        <v>89405</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1934,25 +1933,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6462</v>
+        <v>1202</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1962,10 +1961,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>549966.1103741666</v>
+        <v>549887.6681565105</v>
       </c>
       <c r="R13" t="n">
-        <v>7176431.157499645</v>
+        <v>7176383.234151412</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -1997,7 +1996,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>11:56</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2007,7 +2006,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>11:56</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2034,10 +2033,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111368045</v>
+        <v>111368028</v>
       </c>
       <c r="B14" t="n">
-        <v>89405</v>
+        <v>56398</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2050,34 +2049,39 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P14" t="inlineStr">
         <is>
           <t>Kojholmen, Ås lm</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>550103.3250106032</v>
+        <v>550031.1691488524</v>
       </c>
       <c r="R14" t="n">
-        <v>7176498.877932535</v>
+        <v>7176356.091382794</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2109,7 +2113,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>12:34</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2119,7 +2123,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>12:34</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2146,7 +2150,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111368044</v>
+        <v>111368081</v>
       </c>
       <c r="B15" t="n">
         <v>77515</v>
@@ -2186,10 +2190,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>550090.5625663771</v>
+        <v>549887.6681565105</v>
       </c>
       <c r="R15" t="n">
-        <v>7176467.867670191</v>
+        <v>7176383.234151412</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2221,7 +2225,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>12:19</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2231,7 +2235,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>12:19</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2258,10 +2262,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111368047</v>
+        <v>111368034</v>
       </c>
       <c r="B16" t="n">
-        <v>89405</v>
+        <v>77515</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2274,21 +2278,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2298,10 +2302,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>550104.0632435277</v>
+        <v>550092.9020021709</v>
       </c>
       <c r="R16" t="n">
-        <v>7176531.827197511</v>
+        <v>7176455.929162641</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2333,7 +2337,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>12:12</t>
+          <t>12:28</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2343,7 +2347,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>12:12</t>
+          <t>12:28</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2370,10 +2374,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111368037</v>
+        <v>111368075</v>
       </c>
       <c r="B17" t="n">
-        <v>89423</v>
+        <v>78446</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2386,21 +2390,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5432</v>
+        <v>2080</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Skorpgelélav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Rostania occultata</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Bagl.) Otálora, P.M.Jørg. &amp; Wedin</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2410,10 +2414,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>550138.4038488384</v>
+        <v>549966.1457474855</v>
       </c>
       <c r="R17" t="n">
-        <v>7176475.505636688</v>
+        <v>7176429.019260814</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2445,7 +2449,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>12:23</t>
+          <t>11:56</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2455,7 +2459,12 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>12:23</t>
+          <t>11:56</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>Rostania pallida</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2466,6 +2475,16 @@
       </c>
       <c r="AG17" t="b">
         <v>0</v>
+      </c>
+      <c r="AQ17" t="inlineStr">
+        <is>
+          <t>Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AR17" t="inlineStr">
+        <is>
+          <t>2306231156</t>
+        </is>
       </c>
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
@@ -2482,7 +2501,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111368028</v>
+        <v>111368030</v>
       </c>
       <c r="B18" t="n">
         <v>56398</v>
@@ -2527,10 +2546,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>550031.1691488524</v>
+        <v>550062.8222276447</v>
       </c>
       <c r="R18" t="n">
-        <v>7176356.091382794</v>
+        <v>7176384.421149604</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2562,7 +2581,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>12:34</t>
+          <t>12:32</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2572,7 +2591,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>12:34</t>
+          <t>12:32</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2599,7 +2618,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111368027</v>
+        <v>111368048</v>
       </c>
       <c r="B19" t="n">
         <v>77515</v>
@@ -2639,10 +2658,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>550021.0131254582</v>
+        <v>550102.7432948623</v>
       </c>
       <c r="R19" t="n">
-        <v>7176348.650979794</v>
+        <v>7176533.944055461</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2674,7 +2693,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:11</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2684,7 +2703,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:11</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2711,10 +2730,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111368082</v>
+        <v>111368027</v>
       </c>
       <c r="B20" t="n">
-        <v>89405</v>
+        <v>77515</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2727,21 +2746,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2751,10 +2770,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>549887.6681565105</v>
+        <v>550021.0131254582</v>
       </c>
       <c r="R20" t="n">
-        <v>7176383.234151412</v>
+        <v>7176348.650979794</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2786,7 +2805,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>12:35</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2796,7 +2815,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>12:35</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2823,10 +2842,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111368036</v>
+        <v>111368047</v>
       </c>
       <c r="B21" t="n">
-        <v>77515</v>
+        <v>89405</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2839,21 +2858,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2863,10 +2882,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>550126.7345429868</v>
+        <v>550104.0632435277</v>
       </c>
       <c r="R21" t="n">
-        <v>7176456.062714714</v>
+        <v>7176531.827197511</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -2898,7 +2917,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>12:26</t>
+          <t>12:12</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2908,7 +2927,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>12:26</t>
+          <t>12:12</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2935,10 +2954,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111368025</v>
+        <v>111368059</v>
       </c>
       <c r="B22" t="n">
-        <v>77515</v>
+        <v>73694</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2947,25 +2966,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6425</v>
+        <v>6486</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skuggnål</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca sphaerocephala</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Nádv.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2975,10 +2994,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>549996.6526590078</v>
+        <v>549878.7893641718</v>
       </c>
       <c r="R22" t="n">
-        <v>7176319.586486283</v>
+        <v>7176376.243170704</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -3010,7 +3029,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>12:39</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3020,7 +3039,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>12:39</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3047,10 +3066,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111368024</v>
+        <v>111368078</v>
       </c>
       <c r="B23" t="n">
-        <v>78605</v>
+        <v>57196</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3059,38 +3078,42 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6462</v>
+        <v>206004</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Skogshare</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lepus timidus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr"/>
+          <t>Linnaeus, 1758</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P23" t="inlineStr">
         <is>
           <t>Kojholmen, Ås lm</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>549996.6526590078</v>
+        <v>549936.548302589</v>
       </c>
       <c r="R23" t="n">
-        <v>7176319.586486283</v>
+        <v>7176405.858146392</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>
@@ -3122,7 +3145,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>12:40</t>
+          <t>11:48</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3132,7 +3155,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>12:40</t>
+          <t>11:48</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3159,10 +3182,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111368059</v>
+        <v>111368050</v>
       </c>
       <c r="B24" t="n">
-        <v>73694</v>
+        <v>73696</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3171,25 +3194,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6486</v>
+        <v>6440</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Skuggnål</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Chaenotheca sphaerocephala</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Nádv.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3199,10 +3222,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>549878.7893641718</v>
+        <v>549878.9243151343</v>
       </c>
       <c r="R24" t="n">
-        <v>7176376.243170704</v>
+        <v>7176290.26201662</v>
       </c>
       <c r="S24" t="n">
         <v>25</v>
@@ -3234,7 +3257,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>11:31</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3244,7 +3267,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>11:31</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3271,10 +3294,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111368057</v>
+        <v>111368073</v>
       </c>
       <c r="B25" t="n">
-        <v>77515</v>
+        <v>89405</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3287,21 +3310,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3311,10 +3334,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>549928.1908050156</v>
+        <v>549986.9422517557</v>
       </c>
       <c r="R25" t="n">
-        <v>7176263.697660933</v>
+        <v>7176440.485243178</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3346,7 +3369,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>11:24</t>
+          <t>11:59</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3356,7 +3379,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>11:24</t>
+          <t>11:59</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3383,10 +3406,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111368075</v>
+        <v>111368063</v>
       </c>
       <c r="B26" t="n">
-        <v>78446</v>
+        <v>78605</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3395,25 +3418,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>2080</v>
+        <v>6462</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Skorpgelélav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Rostania occultata</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Bagl.) Otálora, P.M.Jørg. &amp; Wedin</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3423,10 +3446,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>549966.1457474855</v>
+        <v>549846.3981210478</v>
       </c>
       <c r="R26" t="n">
-        <v>7176429.019260814</v>
+        <v>7176340.630942217</v>
       </c>
       <c r="S26" t="n">
         <v>25</v>
@@ -3458,7 +3481,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>11:56</t>
+          <t>11:36</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3468,12 +3491,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>11:56</t>
-        </is>
-      </c>
-      <c r="AC26" t="inlineStr">
-        <is>
-          <t>Rostania pallida</t>
+          <t>11:36</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3484,16 +3502,6 @@
       </c>
       <c r="AG26" t="b">
         <v>0</v>
-      </c>
-      <c r="AQ26" t="inlineStr">
-        <is>
-          <t>Isak Vahlström</t>
-        </is>
-      </c>
-      <c r="AR26" t="inlineStr">
-        <is>
-          <t>2306231156</t>
-        </is>
       </c>
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
@@ -3510,10 +3518,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111368035</v>
+        <v>111368066</v>
       </c>
       <c r="B27" t="n">
-        <v>81248</v>
+        <v>77515</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3526,21 +3534,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1312</v>
+        <v>6425</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3550,10 +3558,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>550127.9977607847</v>
+        <v>550076.8595679611</v>
       </c>
       <c r="R27" t="n">
-        <v>7176457.366965696</v>
+        <v>7176519.398969295</v>
       </c>
       <c r="S27" t="n">
         <v>25</v>
@@ -3585,7 +3593,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>12:26</t>
+          <t>12:08</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3595,7 +3603,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>12:26</t>
+          <t>12:08</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3622,10 +3630,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111368041</v>
+        <v>111368080</v>
       </c>
       <c r="B28" t="n">
-        <v>85715</v>
+        <v>77515</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3638,21 +3646,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>510</v>
+        <v>6425</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3662,10 +3670,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>550134.6000315297</v>
+        <v>549936.548302589</v>
       </c>
       <c r="R28" t="n">
-        <v>7176472.44817721</v>
+        <v>7176405.858146392</v>
       </c>
       <c r="S28" t="n">
         <v>25</v>
@@ -3697,7 +3705,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>12:22</t>
+          <t>11:48</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3707,7 +3715,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>12:22</t>
+          <t>11:48</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3734,10 +3742,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111368049</v>
+        <v>111368065</v>
       </c>
       <c r="B29" t="n">
-        <v>89405</v>
+        <v>89423</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3750,21 +3758,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1202</v>
+        <v>5432</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3774,10 +3782,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>550076.0670580198</v>
+        <v>550079.7716065857</v>
       </c>
       <c r="R29" t="n">
-        <v>7176515.536051848</v>
+        <v>7176524.580282663</v>
       </c>
       <c r="S29" t="n">
         <v>25</v>
@@ -3809,7 +3817,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>12:08</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3819,7 +3827,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>12:08</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3846,10 +3854,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111368055</v>
+        <v>111368035</v>
       </c>
       <c r="B30" t="n">
-        <v>73696</v>
+        <v>81248</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3862,21 +3870,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6440</v>
+        <v>1312</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3886,10 +3894,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>549910.0227821248</v>
+        <v>550127.9977607847</v>
       </c>
       <c r="R30" t="n">
-        <v>7176274.519875553</v>
+        <v>7176457.366965696</v>
       </c>
       <c r="S30" t="n">
         <v>25</v>
@@ -3921,7 +3929,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>12:26</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -3931,7 +3939,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>12:26</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3958,7 +3966,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111368048</v>
+        <v>111368070</v>
       </c>
       <c r="B31" t="n">
         <v>77515</v>
@@ -3998,10 +4006,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>550102.7432948623</v>
+        <v>550009.0934819671</v>
       </c>
       <c r="R31" t="n">
-        <v>7176533.944055461</v>
+        <v>7176499.454964816</v>
       </c>
       <c r="S31" t="n">
         <v>25</v>
@@ -4033,7 +4041,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>12:11</t>
+          <t>12:04</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -4043,7 +4051,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>12:11</t>
+          <t>12:04</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4070,10 +4078,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111368078</v>
+        <v>111368072</v>
       </c>
       <c r="B32" t="n">
-        <v>57196</v>
+        <v>77515</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4086,38 +4094,34 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>206004</v>
+        <v>6425</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Skogshare</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Lepus timidus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
           <t>Kojholmen, Ås lm</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>549936.548302589</v>
+        <v>549964.6102468905</v>
       </c>
       <c r="R32" t="n">
-        <v>7176405.858146392</v>
+        <v>7176470.059016126</v>
       </c>
       <c r="S32" t="n">
         <v>25</v>
@@ -4149,7 +4153,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>11:48</t>
+          <t>12:01</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4159,7 +4163,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>11:48</t>
+          <t>12:01</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4186,10 +4190,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111368043</v>
+        <v>111368031</v>
       </c>
       <c r="B33" t="n">
-        <v>78612</v>
+        <v>77515</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4198,25 +4202,25 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6464</v>
+        <v>6425</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4226,10 +4230,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>550090.5625663771</v>
+        <v>550062.8222276447</v>
       </c>
       <c r="R33" t="n">
-        <v>7176467.867670191</v>
+        <v>7176384.421149604</v>
       </c>
       <c r="S33" t="n">
         <v>25</v>
@@ -4261,7 +4265,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>12:19</t>
+          <t>12:32</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4271,7 +4275,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>12:19</t>
+          <t>12:32</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4298,10 +4302,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111368052</v>
+        <v>111368029</v>
       </c>
       <c r="B34" t="n">
-        <v>89423</v>
+        <v>77515</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4314,21 +4318,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4338,10 +4342,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>549902.2163396301</v>
+        <v>550030.3127802074</v>
       </c>
       <c r="R34" t="n">
-        <v>7176280.379899665</v>
+        <v>7176356.077197819</v>
       </c>
       <c r="S34" t="n">
         <v>25</v>
@@ -4373,7 +4377,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>11:29</t>
+          <t>12:34</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4383,7 +4387,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>11:29</t>
+          <t>12:34</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4410,7 +4414,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111368080</v>
+        <v>111368074</v>
       </c>
       <c r="B35" t="n">
         <v>77515</v>
@@ -4450,10 +4454,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>549936.548302589</v>
+        <v>549991.2735226378</v>
       </c>
       <c r="R35" t="n">
-        <v>7176405.858146392</v>
+        <v>7176437.562583845</v>
       </c>
       <c r="S35" t="n">
         <v>25</v>
@@ -4485,7 +4489,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>11:48</t>
+          <t>11:59</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4495,7 +4499,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>11:48</t>
+          <t>11:59</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4522,10 +4526,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111368060</v>
+        <v>111368045</v>
       </c>
       <c r="B36" t="n">
-        <v>56543</v>
+        <v>89405</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4538,43 +4542,34 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>103021</v>
+        <v>1202</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>upprörd, varnande</t>
-        </is>
-      </c>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
           <t>Kojholmen, Ås lm</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>549874.1005536993</v>
+        <v>550103.3250106032</v>
       </c>
       <c r="R36" t="n">
-        <v>7176374.882427582</v>
+        <v>7176498.877932535</v>
       </c>
       <c r="S36" t="n">
         <v>25</v>
@@ -4606,7 +4601,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4616,7 +4611,7 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4643,10 +4638,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111368077</v>
+        <v>111368026</v>
       </c>
       <c r="B37" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4659,34 +4654,39 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P37" t="inlineStr">
         <is>
           <t>Kojholmen, Ås lm</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>549958.3678805742</v>
+        <v>550021.0272902437</v>
       </c>
       <c r="R37" t="n">
-        <v>7176433.168246322</v>
+        <v>7176347.795661078</v>
       </c>
       <c r="S37" t="n">
         <v>25</v>
@@ -4718,7 +4718,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>11:56</t>
+          <t>12:35</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -4728,7 +4728,7 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>11:56</t>
+          <t>12:35</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4755,10 +4755,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111368056</v>
+        <v>111368055</v>
       </c>
       <c r="B38" t="n">
-        <v>77515</v>
+        <v>73696</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4771,21 +4771,21 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4795,10 +4795,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>549909.1310579075</v>
+        <v>549910.0227821248</v>
       </c>
       <c r="R38" t="n">
-        <v>7176276.644072821</v>
+        <v>7176274.519875553</v>
       </c>
       <c r="S38" t="n">
         <v>25</v>
@@ -4867,10 +4867,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111368061</v>
+        <v>111368053</v>
       </c>
       <c r="B39" t="n">
-        <v>77515</v>
+        <v>73701</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4883,21 +4883,21 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>6425</v>
+        <v>1467</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rödbrun blekspik</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Sclerophora coniophaea</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Norman) J.Mattsson &amp; Middelb.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -4907,10 +4907,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>549872.7453947841</v>
+        <v>549900.8964279072</v>
       </c>
       <c r="R39" t="n">
-        <v>7176379.137769157</v>
+        <v>7176282.497020906</v>
       </c>
       <c r="S39" t="n">
         <v>25</v>
@@ -4942,7 +4942,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -4952,7 +4952,7 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -4979,10 +4979,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111368073</v>
+        <v>111368041</v>
       </c>
       <c r="B40" t="n">
-        <v>89405</v>
+        <v>85715</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -4995,21 +4995,21 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>1202</v>
+        <v>510</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -5019,10 +5019,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>549986.9422517557</v>
+        <v>550134.6000315297</v>
       </c>
       <c r="R40" t="n">
-        <v>7176440.485243178</v>
+        <v>7176472.44817721</v>
       </c>
       <c r="S40" t="n">
         <v>25</v>
@@ -5054,7 +5054,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:22</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
@@ -5064,7 +5064,7 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:22</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5091,10 +5091,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111368064</v>
+        <v>111368038</v>
       </c>
       <c r="B41" t="n">
-        <v>89423</v>
+        <v>96368</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5103,25 +5103,25 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>5432</v>
+        <v>221952</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5131,10 +5131,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>549829.9126936665</v>
+        <v>550140.4310960311</v>
       </c>
       <c r="R41" t="n">
-        <v>7176301.430993037</v>
+        <v>7176482.383431778</v>
       </c>
       <c r="S41" t="n">
         <v>25</v>
@@ -5166,7 +5166,7 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>11:34</t>
+          <t>12:23</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>11:34</t>
+          <t>12:23</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5203,7 +5203,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111368066</v>
+        <v>111368040</v>
       </c>
       <c r="B42" t="n">
         <v>77515</v>
@@ -5243,10 +5243,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>550076.8595679611</v>
+        <v>550140.4310960311</v>
       </c>
       <c r="R42" t="n">
-        <v>7176519.398969295</v>
+        <v>7176482.383431778</v>
       </c>
       <c r="S42" t="n">
         <v>25</v>
@@ -5278,7 +5278,7 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>12:08</t>
+          <t>12:23</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
@@ -5288,7 +5288,7 @@
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>12:08</t>
+          <t>12:23</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5315,10 +5315,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111368074</v>
+        <v>111368054</v>
       </c>
       <c r="B43" t="n">
-        <v>77515</v>
+        <v>95532</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5327,25 +5327,25 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>6425</v>
+        <v>221945</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5355,10 +5355,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>549991.2735226378</v>
+        <v>549910.0086488514</v>
       </c>
       <c r="R43" t="n">
-        <v>7176437.562583845</v>
+        <v>7176275.375214851</v>
       </c>
       <c r="S43" t="n">
         <v>25</v>
@@ -5390,7 +5390,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>11:26</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
@@ -5400,7 +5400,7 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>11:26</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5427,7 +5427,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111368029</v>
+        <v>111368036</v>
       </c>
       <c r="B44" t="n">
         <v>77515</v>
@@ -5467,10 +5467,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>550030.3127802074</v>
+        <v>550126.7345429868</v>
       </c>
       <c r="R44" t="n">
-        <v>7176356.077197819</v>
+        <v>7176456.062714714</v>
       </c>
       <c r="S44" t="n">
         <v>25</v>
@@ -5502,7 +5502,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>12:34</t>
+          <t>12:26</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>12:34</t>
+          <t>12:26</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5539,10 +5539,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111368071</v>
+        <v>111368052</v>
       </c>
       <c r="B45" t="n">
-        <v>73689</v>
+        <v>89423</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5555,21 +5555,21 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>308</v>
+        <v>5432</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5579,10 +5579,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>549966.7510875309</v>
+        <v>549902.2163396301</v>
       </c>
       <c r="R45" t="n">
-        <v>7176470.094432743</v>
+        <v>7176280.379899665</v>
       </c>
       <c r="S45" t="n">
         <v>25</v>
@@ -5614,7 +5614,7 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>12:01</t>
+          <t>11:29</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
@@ -5624,7 +5624,7 @@
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>12:01</t>
+          <t>11:29</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5651,10 +5651,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111368069</v>
+        <v>111368051</v>
       </c>
       <c r="B46" t="n">
-        <v>89419</v>
+        <v>77515</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5667,21 +5667,21 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>1204</v>
+        <v>6425</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5691,10 +5691,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>550009.0934819671</v>
+        <v>549879.900762578</v>
       </c>
       <c r="R46" t="n">
-        <v>7176499.454964816</v>
+        <v>7176283.005802887</v>
       </c>
       <c r="S46" t="n">
         <v>25</v>
@@ -5726,7 +5726,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>11:31</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
@@ -5736,7 +5736,7 @@
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>11:31</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5763,10 +5763,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111368065</v>
+        <v>111368069</v>
       </c>
       <c r="B47" t="n">
-        <v>89423</v>
+        <v>89419</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5779,21 +5779,21 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>5432</v>
+        <v>1204</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5803,10 +5803,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>550079.7716065857</v>
+        <v>550009.0934819671</v>
       </c>
       <c r="R47" t="n">
-        <v>7176524.580282663</v>
+        <v>7176499.454964816</v>
       </c>
       <c r="S47" t="n">
         <v>25</v>
@@ -5838,7 +5838,7 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>12:08</t>
+          <t>12:04</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>12:08</t>
+          <t>12:04</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -5875,7 +5875,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111368070</v>
+        <v>111368061</v>
       </c>
       <c r="B48" t="n">
         <v>77515</v>
@@ -5915,10 +5915,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>550009.0934819671</v>
+        <v>549872.7453947841</v>
       </c>
       <c r="R48" t="n">
-        <v>7176499.454964816</v>
+        <v>7176379.137769157</v>
       </c>
       <c r="S48" t="n">
         <v>25</v>
@@ -5950,7 +5950,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
@@ -5960,7 +5960,7 @@
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -5987,10 +5987,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111368053</v>
+        <v>111368067</v>
       </c>
       <c r="B49" t="n">
-        <v>73701</v>
+        <v>89401</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6003,21 +6003,21 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>1467</v>
+        <v>1108</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Rödbrun blekspik</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Sclerophora coniophaea</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Norman) J.Mattsson &amp; Middelb.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -6027,10 +6027,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>549900.8964279072</v>
+        <v>550061.031779538</v>
       </c>
       <c r="R49" t="n">
-        <v>7176282.497020906</v>
+        <v>7176518.281073146</v>
       </c>
       <c r="S49" t="n">
         <v>25</v>
@@ -6062,7 +6062,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>12:06</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
@@ -6072,7 +6072,7 @@
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>12:06</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -6211,7 +6211,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111368034</v>
+        <v>111368057</v>
       </c>
       <c r="B51" t="n">
         <v>77515</v>
@@ -6251,10 +6251,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>550092.9020021709</v>
+        <v>549928.1908050156</v>
       </c>
       <c r="R51" t="n">
-        <v>7176455.929162641</v>
+        <v>7176263.697660933</v>
       </c>
       <c r="S51" t="n">
         <v>25</v>
@@ -6286,7 +6286,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>12:28</t>
+          <t>11:24</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
@@ -6296,7 +6296,7 @@
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>12:28</t>
+          <t>11:24</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6323,7 +6323,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111368031</v>
+        <v>111368068</v>
       </c>
       <c r="B52" t="n">
         <v>77515</v>
@@ -6363,10 +6363,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>550062.8222276447</v>
+        <v>550061.031779538</v>
       </c>
       <c r="R52" t="n">
-        <v>7176384.421149604</v>
+        <v>7176518.281073146</v>
       </c>
       <c r="S52" t="n">
         <v>25</v>
@@ -6398,7 +6398,7 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>12:32</t>
+          <t>12:06</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
@@ -6408,7 +6408,7 @@
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>12:32</t>
+          <t>12:06</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6435,7 +6435,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111368068</v>
+        <v>111368044</v>
       </c>
       <c r="B53" t="n">
         <v>77515</v>
@@ -6475,10 +6475,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>550061.031779538</v>
+        <v>550090.5625663771</v>
       </c>
       <c r="R53" t="n">
-        <v>7176518.281073146</v>
+        <v>7176467.867670191</v>
       </c>
       <c r="S53" t="n">
         <v>25</v>
@@ -6510,7 +6510,7 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>12:06</t>
+          <t>12:19</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>12:06</t>
+          <t>12:19</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6547,10 +6547,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111368054</v>
+        <v>111368024</v>
       </c>
       <c r="B54" t="n">
-        <v>95532</v>
+        <v>78605</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6563,21 +6563,21 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>221945</v>
+        <v>6462</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6587,10 +6587,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>549910.0086488514</v>
+        <v>549996.6526590078</v>
       </c>
       <c r="R54" t="n">
-        <v>7176275.375214851</v>
+        <v>7176319.586486283</v>
       </c>
       <c r="S54" t="n">
         <v>25</v>
@@ -6622,7 +6622,7 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>12:40</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
@@ -6632,7 +6632,7 @@
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>12:40</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6659,10 +6659,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111368038</v>
+        <v>111368056</v>
       </c>
       <c r="B55" t="n">
-        <v>96368</v>
+        <v>77515</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6671,25 +6671,25 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>221952</v>
+        <v>6425</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6699,10 +6699,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>550140.4310960311</v>
+        <v>549909.1310579075</v>
       </c>
       <c r="R55" t="n">
-        <v>7176482.383431778</v>
+        <v>7176276.644072821</v>
       </c>
       <c r="S55" t="n">
         <v>25</v>
@@ -6734,7 +6734,7 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>12:23</t>
+          <t>11:26</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
@@ -6744,7 +6744,7 @@
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>12:23</t>
+          <t>11:26</t>
         </is>
       </c>
       <c r="AD55" t="b">

--- a/artfynd/A 39168-2021.xlsx
+++ b/artfynd/A 39168-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111368071</v>
+        <v>111368041</v>
       </c>
       <c r="B2" t="n">
-        <v>73689</v>
+        <v>85715</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>308</v>
+        <v>510</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>549966.7510875309</v>
+        <v>550134.6000315297</v>
       </c>
       <c r="R2" t="n">
-        <v>7176470.094432743</v>
+        <v>7176472.44817721</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -755,7 +755,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>12:01</t>
+          <t>12:22</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -765,7 +765,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>12:01</t>
+          <t>12:22</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111368046</v>
+        <v>111368060</v>
       </c>
       <c r="B3" t="n">
-        <v>77515</v>
+        <v>56543</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,34 +808,43 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>103021</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>upprörd, varnande</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr">
         <is>
           <t>Kojholmen, Ås lm</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>550103.3250106032</v>
+        <v>549874.1005536993</v>
       </c>
       <c r="R3" t="n">
-        <v>7176498.877932535</v>
+        <v>7176374.882427582</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -867,7 +876,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -877,7 +886,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -904,10 +913,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111368049</v>
+        <v>111368029</v>
       </c>
       <c r="B4" t="n">
-        <v>89405</v>
+        <v>77515</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -920,21 +929,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,10 +953,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>550076.0670580198</v>
+        <v>550030.3127802074</v>
       </c>
       <c r="R4" t="n">
-        <v>7176515.536051848</v>
+        <v>7176356.077197819</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -979,7 +988,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>12:34</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -989,7 +998,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>12:34</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1016,10 +1025,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111368062</v>
+        <v>111368064</v>
       </c>
       <c r="B5" t="n">
-        <v>78542</v>
+        <v>89423</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1028,25 +1037,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>229748</v>
+        <v>5432</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Gytterlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Protopannaria pezizoides</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Weber) P.M.Jørg. &amp; S.Ekman</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1056,10 +1065,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>549845.5417482131</v>
+        <v>549829.9126936665</v>
       </c>
       <c r="R5" t="n">
-        <v>7176340.616809647</v>
+        <v>7176301.430993037</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1091,7 +1100,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>11:34</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1101,7 +1110,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>11:34</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1128,7 +1137,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111368077</v>
+        <v>111368031</v>
       </c>
       <c r="B6" t="n">
         <v>77515</v>
@@ -1168,10 +1177,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>549958.3678805742</v>
+        <v>550062.8222276447</v>
       </c>
       <c r="R6" t="n">
-        <v>7176433.168246322</v>
+        <v>7176384.421149604</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1203,7 +1212,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>11:56</t>
+          <t>12:32</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1213,7 +1222,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>11:56</t>
+          <t>12:32</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1240,10 +1249,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111368076</v>
+        <v>111368033</v>
       </c>
       <c r="B7" t="n">
-        <v>78605</v>
+        <v>73689</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1252,25 +1261,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6462</v>
+        <v>308</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1280,10 +1289,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>549966.1103741666</v>
+        <v>550093.7441570745</v>
       </c>
       <c r="R7" t="n">
-        <v>7176431.157499645</v>
+        <v>7176456.798653707</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1315,7 +1324,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>11:56</t>
+          <t>12:28</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1325,7 +1334,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>11:56</t>
+          <t>12:28</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1352,10 +1361,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111368037</v>
+        <v>111368046</v>
       </c>
       <c r="B8" t="n">
-        <v>89423</v>
+        <v>77515</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1368,21 +1377,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1392,10 +1401,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>550138.4038488384</v>
+        <v>550103.3250106032</v>
       </c>
       <c r="R8" t="n">
-        <v>7176475.505636688</v>
+        <v>7176498.877932535</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1427,7 +1436,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>12:23</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1437,7 +1446,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>12:23</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1464,7 +1473,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111368025</v>
+        <v>111368066</v>
       </c>
       <c r="B9" t="n">
         <v>77515</v>
@@ -1504,10 +1513,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>549996.6526590078</v>
+        <v>550076.8595679611</v>
       </c>
       <c r="R9" t="n">
-        <v>7176319.586486283</v>
+        <v>7176519.398969295</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1539,7 +1548,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>12:39</t>
+          <t>12:08</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1549,7 +1558,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>12:39</t>
+          <t>12:08</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1576,10 +1585,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111368043</v>
+        <v>111368030</v>
       </c>
       <c r="B10" t="n">
-        <v>78612</v>
+        <v>56398</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1588,38 +1597,43 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6464</v>
+        <v>100109</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P10" t="inlineStr">
         <is>
           <t>Kojholmen, Ås lm</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>550090.5625663771</v>
+        <v>550062.8222276447</v>
       </c>
       <c r="R10" t="n">
-        <v>7176467.867670191</v>
+        <v>7176384.421149604</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1651,7 +1665,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>12:19</t>
+          <t>12:32</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1661,7 +1675,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>12:19</t>
+          <t>12:32</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1688,10 +1702,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111368064</v>
+        <v>111368048</v>
       </c>
       <c r="B11" t="n">
-        <v>89423</v>
+        <v>77515</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1704,21 +1718,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1728,10 +1742,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>549829.9126936665</v>
+        <v>550102.7432948623</v>
       </c>
       <c r="R11" t="n">
-        <v>7176301.430993037</v>
+        <v>7176533.944055461</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1763,7 +1777,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>11:34</t>
+          <t>12:11</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1773,7 +1787,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>11:34</t>
+          <t>12:11</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1800,10 +1814,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111368060</v>
+        <v>111368038</v>
       </c>
       <c r="B12" t="n">
-        <v>56543</v>
+        <v>96368</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1812,47 +1826,38 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>103021</v>
+        <v>221952</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>upprörd, varnande</t>
-        </is>
-      </c>
+          <t>(L.) Rich.</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
           <t>Kojholmen, Ås lm</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>549874.1005536993</v>
+        <v>550140.4310960311</v>
       </c>
       <c r="R12" t="n">
-        <v>7176374.882427582</v>
+        <v>7176482.383431778</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1884,7 +1889,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>12:23</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1894,7 +1899,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>12:23</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1921,7 +1926,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111368082</v>
+        <v>111368073</v>
       </c>
       <c r="B13" t="n">
         <v>89405</v>
@@ -1961,10 +1966,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>549887.6681565105</v>
+        <v>549986.9422517557</v>
       </c>
       <c r="R13" t="n">
-        <v>7176383.234151412</v>
+        <v>7176440.485243178</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -1996,7 +2001,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>11:59</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2006,7 +2011,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>11:59</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2033,10 +2038,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111368028</v>
+        <v>111368054</v>
       </c>
       <c r="B14" t="n">
-        <v>56398</v>
+        <v>95532</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2045,43 +2050,38 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>100109</v>
+        <v>221945</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P14" t="inlineStr">
         <is>
           <t>Kojholmen, Ås lm</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>550031.1691488524</v>
+        <v>549910.0086488514</v>
       </c>
       <c r="R14" t="n">
-        <v>7176356.091382794</v>
+        <v>7176275.375214851</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2113,7 +2113,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>12:34</t>
+          <t>11:26</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2123,7 +2123,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>12:34</t>
+          <t>11:26</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2150,10 +2150,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111368081</v>
+        <v>111368067</v>
       </c>
       <c r="B15" t="n">
-        <v>77515</v>
+        <v>89401</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2166,21 +2166,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6425</v>
+        <v>1108</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2190,10 +2190,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>549887.6681565105</v>
+        <v>550061.031779538</v>
       </c>
       <c r="R15" t="n">
-        <v>7176383.234151412</v>
+        <v>7176518.281073146</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2225,7 +2225,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>12:06</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2235,7 +2235,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>12:06</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2374,10 +2374,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111368075</v>
+        <v>111368076</v>
       </c>
       <c r="B17" t="n">
-        <v>78446</v>
+        <v>78605</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2386,25 +2386,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>2080</v>
+        <v>6462</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Skorpgelélav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Rostania occultata</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Bagl.) Otálora, P.M.Jørg. &amp; Wedin</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2414,10 +2414,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>549966.1457474855</v>
+        <v>549966.1103741666</v>
       </c>
       <c r="R17" t="n">
-        <v>7176429.019260814</v>
+        <v>7176431.157499645</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2462,11 +2462,6 @@
           <t>11:56</t>
         </is>
       </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>Rostania pallida</t>
-        </is>
-      </c>
       <c r="AD17" t="b">
         <v>0</v>
       </c>
@@ -2475,16 +2470,6 @@
       </c>
       <c r="AG17" t="b">
         <v>0</v>
-      </c>
-      <c r="AQ17" t="inlineStr">
-        <is>
-          <t>Isak Vahlström</t>
-        </is>
-      </c>
-      <c r="AR17" t="inlineStr">
-        <is>
-          <t>2306231156</t>
-        </is>
       </c>
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
@@ -2501,10 +2486,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111368030</v>
+        <v>111368044</v>
       </c>
       <c r="B18" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2517,39 +2502,34 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P18" t="inlineStr">
         <is>
           <t>Kojholmen, Ås lm</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>550062.8222276447</v>
+        <v>550090.5625663771</v>
       </c>
       <c r="R18" t="n">
-        <v>7176384.421149604</v>
+        <v>7176467.867670191</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2581,7 +2561,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>12:32</t>
+          <t>12:19</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2591,7 +2571,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>12:32</t>
+          <t>12:19</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2618,7 +2598,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111368048</v>
+        <v>111368061</v>
       </c>
       <c r="B19" t="n">
         <v>77515</v>
@@ -2658,10 +2638,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>550102.7432948623</v>
+        <v>549872.7453947841</v>
       </c>
       <c r="R19" t="n">
-        <v>7176533.944055461</v>
+        <v>7176379.137769157</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2693,7 +2673,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>12:11</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2703,7 +2683,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>12:11</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2730,7 +2710,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111368027</v>
+        <v>111368025</v>
       </c>
       <c r="B20" t="n">
         <v>77515</v>
@@ -2770,10 +2750,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>550021.0131254582</v>
+        <v>549996.6526590078</v>
       </c>
       <c r="R20" t="n">
-        <v>7176348.650979794</v>
+        <v>7176319.586486283</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2805,7 +2785,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:39</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2815,7 +2795,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:39</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2842,10 +2822,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111368047</v>
+        <v>111368024</v>
       </c>
       <c r="B21" t="n">
-        <v>89405</v>
+        <v>78605</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2854,25 +2834,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1202</v>
+        <v>6462</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2882,10 +2862,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>550104.0632435277</v>
+        <v>549996.6526590078</v>
       </c>
       <c r="R21" t="n">
-        <v>7176531.827197511</v>
+        <v>7176319.586486283</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -2917,7 +2897,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>12:12</t>
+          <t>12:40</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2927,7 +2907,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>12:12</t>
+          <t>12:40</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2954,10 +2934,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111368059</v>
+        <v>111368056</v>
       </c>
       <c r="B22" t="n">
-        <v>73694</v>
+        <v>77515</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2966,25 +2946,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6486</v>
+        <v>6425</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Skuggnål</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Chaenotheca sphaerocephala</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Nádv.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2994,10 +2974,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>549878.7893641718</v>
+        <v>549909.1310579075</v>
       </c>
       <c r="R22" t="n">
-        <v>7176376.243170704</v>
+        <v>7176276.644072821</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -3029,7 +3009,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>11:26</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3039,7 +3019,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>11:26</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3066,10 +3046,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111368078</v>
+        <v>111368057</v>
       </c>
       <c r="B23" t="n">
-        <v>57196</v>
+        <v>77515</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3082,38 +3062,34 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>206004</v>
+        <v>6425</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Skogshare</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Lepus timidus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
           <t>Kojholmen, Ås lm</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>549936.548302589</v>
+        <v>549928.1908050156</v>
       </c>
       <c r="R23" t="n">
-        <v>7176405.858146392</v>
+        <v>7176263.697660933</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>
@@ -3145,7 +3121,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>11:48</t>
+          <t>11:24</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3155,7 +3131,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>11:48</t>
+          <t>11:24</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3182,10 +3158,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111368050</v>
+        <v>111368040</v>
       </c>
       <c r="B24" t="n">
-        <v>73696</v>
+        <v>77515</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3198,21 +3174,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3222,10 +3198,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>549878.9243151343</v>
+        <v>550140.4310960311</v>
       </c>
       <c r="R24" t="n">
-        <v>7176290.26201662</v>
+        <v>7176482.383431778</v>
       </c>
       <c r="S24" t="n">
         <v>25</v>
@@ -3257,7 +3233,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>11:31</t>
+          <t>12:23</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3267,7 +3243,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>11:31</t>
+          <t>12:23</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3294,10 +3270,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111368073</v>
+        <v>111368072</v>
       </c>
       <c r="B25" t="n">
-        <v>89405</v>
+        <v>77515</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3310,21 +3286,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3334,10 +3310,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>549986.9422517557</v>
+        <v>549964.6102468905</v>
       </c>
       <c r="R25" t="n">
-        <v>7176440.485243178</v>
+        <v>7176470.059016126</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3369,7 +3345,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:01</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3379,7 +3355,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:01</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3406,10 +3382,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111368063</v>
+        <v>111368050</v>
       </c>
       <c r="B26" t="n">
-        <v>78605</v>
+        <v>73696</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3418,25 +3394,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6462</v>
+        <v>6440</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3446,10 +3422,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>549846.3981210478</v>
+        <v>549878.9243151343</v>
       </c>
       <c r="R26" t="n">
-        <v>7176340.630942217</v>
+        <v>7176290.26201662</v>
       </c>
       <c r="S26" t="n">
         <v>25</v>
@@ -3481,7 +3457,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>11:31</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3491,7 +3467,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>11:31</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3518,10 +3494,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111368066</v>
+        <v>111368059</v>
       </c>
       <c r="B27" t="n">
-        <v>77515</v>
+        <v>73694</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3530,25 +3506,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6425</v>
+        <v>6486</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skuggnål</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca sphaerocephala</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Nádv.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3558,10 +3534,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>550076.8595679611</v>
+        <v>549878.7893641718</v>
       </c>
       <c r="R27" t="n">
-        <v>7176519.398969295</v>
+        <v>7176376.243170704</v>
       </c>
       <c r="S27" t="n">
         <v>25</v>
@@ -3593,7 +3569,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>12:08</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3603,7 +3579,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>12:08</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3742,10 +3718,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111368065</v>
+        <v>111368027</v>
       </c>
       <c r="B29" t="n">
-        <v>89423</v>
+        <v>77515</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3758,21 +3734,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3782,10 +3758,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>550079.7716065857</v>
+        <v>550021.0131254582</v>
       </c>
       <c r="R29" t="n">
-        <v>7176524.580282663</v>
+        <v>7176348.650979794</v>
       </c>
       <c r="S29" t="n">
         <v>25</v>
@@ -3817,7 +3793,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>12:08</t>
+          <t>12:35</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3827,7 +3803,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>12:08</t>
+          <t>12:35</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3854,10 +3830,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111368035</v>
+        <v>111368065</v>
       </c>
       <c r="B30" t="n">
-        <v>81248</v>
+        <v>89423</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3870,21 +3846,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1312</v>
+        <v>5432</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3894,10 +3870,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>550127.9977607847</v>
+        <v>550079.7716065857</v>
       </c>
       <c r="R30" t="n">
-        <v>7176457.366965696</v>
+        <v>7176524.580282663</v>
       </c>
       <c r="S30" t="n">
         <v>25</v>
@@ -3929,7 +3905,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>12:26</t>
+          <t>12:08</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -3939,7 +3915,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>12:26</t>
+          <t>12:08</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3966,10 +3942,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111368070</v>
+        <v>111368028</v>
       </c>
       <c r="B31" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3982,34 +3958,39 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P31" t="inlineStr">
         <is>
           <t>Kojholmen, Ås lm</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>550009.0934819671</v>
+        <v>550031.1691488524</v>
       </c>
       <c r="R31" t="n">
-        <v>7176499.454964816</v>
+        <v>7176356.091382794</v>
       </c>
       <c r="S31" t="n">
         <v>25</v>
@@ -4041,7 +4022,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:34</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -4051,7 +4032,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>12:34</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4078,7 +4059,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111368072</v>
+        <v>111368077</v>
       </c>
       <c r="B32" t="n">
         <v>77515</v>
@@ -4118,10 +4099,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>549964.6102468905</v>
+        <v>549958.3678805742</v>
       </c>
       <c r="R32" t="n">
-        <v>7176470.059016126</v>
+        <v>7176433.168246322</v>
       </c>
       <c r="S32" t="n">
         <v>25</v>
@@ -4153,7 +4134,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>12:01</t>
+          <t>11:56</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4163,7 +4144,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>12:01</t>
+          <t>11:56</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4190,10 +4171,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111368031</v>
+        <v>111368043</v>
       </c>
       <c r="B33" t="n">
-        <v>77515</v>
+        <v>78612</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4202,25 +4183,25 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6425</v>
+        <v>6464</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4230,10 +4211,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>550062.8222276447</v>
+        <v>550090.5625663771</v>
       </c>
       <c r="R33" t="n">
-        <v>7176384.421149604</v>
+        <v>7176467.867670191</v>
       </c>
       <c r="S33" t="n">
         <v>25</v>
@@ -4265,7 +4246,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>12:32</t>
+          <t>12:19</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4275,7 +4256,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>12:32</t>
+          <t>12:19</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4302,7 +4283,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111368029</v>
+        <v>111368070</v>
       </c>
       <c r="B34" t="n">
         <v>77515</v>
@@ -4342,10 +4323,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>550030.3127802074</v>
+        <v>550009.0934819671</v>
       </c>
       <c r="R34" t="n">
-        <v>7176356.077197819</v>
+        <v>7176499.454964816</v>
       </c>
       <c r="S34" t="n">
         <v>25</v>
@@ -4377,7 +4358,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>12:34</t>
+          <t>12:04</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4387,7 +4368,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>12:34</t>
+          <t>12:04</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4526,10 +4507,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111368045</v>
+        <v>111368069</v>
       </c>
       <c r="B36" t="n">
-        <v>89405</v>
+        <v>89419</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4542,21 +4523,21 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1202</v>
+        <v>1204</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4566,10 +4547,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>550103.3250106032</v>
+        <v>550009.0934819671</v>
       </c>
       <c r="R36" t="n">
-        <v>7176498.877932535</v>
+        <v>7176499.454964816</v>
       </c>
       <c r="S36" t="n">
         <v>25</v>
@@ -4601,7 +4582,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>12:04</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4611,7 +4592,7 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>12:04</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4638,10 +4619,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111368026</v>
+        <v>111368062</v>
       </c>
       <c r="B37" t="n">
-        <v>56398</v>
+        <v>78542</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4650,43 +4631,38 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>100109</v>
+        <v>229748</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Gytterlav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Protopannaria pezizoides</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Weber) P.M.Jørg. &amp; S.Ekman</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P37" t="inlineStr">
         <is>
           <t>Kojholmen, Ås lm</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>550021.0272902437</v>
+        <v>549845.5417482131</v>
       </c>
       <c r="R37" t="n">
-        <v>7176347.795661078</v>
+        <v>7176340.616809647</v>
       </c>
       <c r="S37" t="n">
         <v>25</v>
@@ -4718,7 +4694,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>11:36</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -4728,7 +4704,7 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>11:36</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4755,10 +4731,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111368055</v>
+        <v>111368081</v>
       </c>
       <c r="B38" t="n">
-        <v>73696</v>
+        <v>77515</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4771,21 +4747,21 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4795,10 +4771,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>549910.0227821248</v>
+        <v>549887.6681565105</v>
       </c>
       <c r="R38" t="n">
-        <v>7176274.519875553</v>
+        <v>7176383.234151412</v>
       </c>
       <c r="S38" t="n">
         <v>25</v>
@@ -4830,7 +4806,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -4840,7 +4816,7 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4867,10 +4843,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111368053</v>
+        <v>111368026</v>
       </c>
       <c r="B39" t="n">
-        <v>73701</v>
+        <v>56398</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4883,34 +4859,39 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1467</v>
+        <v>100109</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Rödbrun blekspik</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Sclerophora coniophaea</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Norman) J.Mattsson &amp; Middelb.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P39" t="inlineStr">
         <is>
           <t>Kojholmen, Ås lm</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>549900.8964279072</v>
+        <v>550021.0272902437</v>
       </c>
       <c r="R39" t="n">
-        <v>7176282.497020906</v>
+        <v>7176347.795661078</v>
       </c>
       <c r="S39" t="n">
         <v>25</v>
@@ -4942,7 +4923,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>12:35</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -4952,7 +4933,7 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>12:35</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -4979,10 +4960,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111368041</v>
+        <v>111368071</v>
       </c>
       <c r="B40" t="n">
-        <v>85715</v>
+        <v>73689</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -4995,21 +4976,21 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>510</v>
+        <v>308</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -5019,10 +5000,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>550134.6000315297</v>
+        <v>549966.7510875309</v>
       </c>
       <c r="R40" t="n">
-        <v>7176472.44817721</v>
+        <v>7176470.094432743</v>
       </c>
       <c r="S40" t="n">
         <v>25</v>
@@ -5054,7 +5035,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>12:22</t>
+          <t>12:01</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
@@ -5064,7 +5045,7 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>12:22</t>
+          <t>12:01</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5091,10 +5072,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111368038</v>
+        <v>111368082</v>
       </c>
       <c r="B41" t="n">
-        <v>96368</v>
+        <v>89405</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5103,25 +5084,25 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>221952</v>
+        <v>1202</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5131,10 +5112,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>550140.4310960311</v>
+        <v>549887.6681565105</v>
       </c>
       <c r="R41" t="n">
-        <v>7176482.383431778</v>
+        <v>7176383.234151412</v>
       </c>
       <c r="S41" t="n">
         <v>25</v>
@@ -5166,7 +5147,7 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>12:23</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
@@ -5176,7 +5157,7 @@
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>12:23</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5203,10 +5184,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111368040</v>
+        <v>111368045</v>
       </c>
       <c r="B42" t="n">
-        <v>77515</v>
+        <v>89405</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5219,21 +5200,21 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5243,10 +5224,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>550140.4310960311</v>
+        <v>550103.3250106032</v>
       </c>
       <c r="R42" t="n">
-        <v>7176482.383431778</v>
+        <v>7176498.877932535</v>
       </c>
       <c r="S42" t="n">
         <v>25</v>
@@ -5278,7 +5259,7 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>12:23</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
@@ -5288,7 +5269,7 @@
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>12:23</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5315,10 +5296,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111368054</v>
+        <v>111368053</v>
       </c>
       <c r="B43" t="n">
-        <v>95532</v>
+        <v>73701</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5327,25 +5308,25 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>221945</v>
+        <v>1467</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Rödbrun blekspik</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Sclerophora coniophaea</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Norman) J.Mattsson &amp; Middelb.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5355,10 +5336,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>549910.0086488514</v>
+        <v>549900.8964279072</v>
       </c>
       <c r="R43" t="n">
-        <v>7176275.375214851</v>
+        <v>7176282.497020906</v>
       </c>
       <c r="S43" t="n">
         <v>25</v>
@@ -5390,7 +5371,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
@@ -5400,7 +5381,7 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5427,10 +5408,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111368036</v>
+        <v>111368055</v>
       </c>
       <c r="B44" t="n">
-        <v>77515</v>
+        <v>73696</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5443,21 +5424,21 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5467,10 +5448,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>550126.7345429868</v>
+        <v>549910.0227821248</v>
       </c>
       <c r="R44" t="n">
-        <v>7176456.062714714</v>
+        <v>7176274.519875553</v>
       </c>
       <c r="S44" t="n">
         <v>25</v>
@@ -5502,7 +5483,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>12:26</t>
+          <t>11:26</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
@@ -5512,7 +5493,7 @@
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>12:26</t>
+          <t>11:26</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5539,10 +5520,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111368052</v>
+        <v>111368049</v>
       </c>
       <c r="B45" t="n">
-        <v>89423</v>
+        <v>89405</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5555,21 +5536,21 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>5432</v>
+        <v>1202</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5579,10 +5560,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>549902.2163396301</v>
+        <v>550076.0670580198</v>
       </c>
       <c r="R45" t="n">
-        <v>7176280.379899665</v>
+        <v>7176515.536051848</v>
       </c>
       <c r="S45" t="n">
         <v>25</v>
@@ -5614,7 +5595,7 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>11:29</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
@@ -5624,7 +5605,7 @@
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>11:29</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5651,10 +5632,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111368051</v>
+        <v>111368075</v>
       </c>
       <c r="B46" t="n">
-        <v>77515</v>
+        <v>78446</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5667,21 +5648,21 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>6425</v>
+        <v>2080</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skorpgelélav</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Rostania occultata</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Bagl.) Otálora, P.M.Jørg. &amp; Wedin</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5691,10 +5672,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>549879.900762578</v>
+        <v>549966.1457474855</v>
       </c>
       <c r="R46" t="n">
-        <v>7176283.005802887</v>
+        <v>7176429.019260814</v>
       </c>
       <c r="S46" t="n">
         <v>25</v>
@@ -5726,7 +5707,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>11:31</t>
+          <t>11:56</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
@@ -5736,7 +5717,12 @@
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>11:31</t>
+          <t>11:56</t>
+        </is>
+      </c>
+      <c r="AC46" t="inlineStr">
+        <is>
+          <t>Rostania pallida</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5747,6 +5733,16 @@
       </c>
       <c r="AG46" t="b">
         <v>0</v>
+      </c>
+      <c r="AQ46" t="inlineStr">
+        <is>
+          <t>Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AR46" t="inlineStr">
+        <is>
+          <t>2306231156</t>
+        </is>
       </c>
       <c r="AT46" t="inlineStr"/>
       <c r="AW46" t="inlineStr">
@@ -5763,10 +5759,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111368069</v>
+        <v>111368051</v>
       </c>
       <c r="B47" t="n">
-        <v>89419</v>
+        <v>77515</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5779,21 +5775,21 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>1204</v>
+        <v>6425</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5803,10 +5799,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>550009.0934819671</v>
+        <v>549879.900762578</v>
       </c>
       <c r="R47" t="n">
-        <v>7176499.454964816</v>
+        <v>7176283.005802887</v>
       </c>
       <c r="S47" t="n">
         <v>25</v>
@@ -5838,7 +5834,7 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>11:31</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
@@ -5848,7 +5844,7 @@
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>11:31</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -5875,10 +5871,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111368061</v>
+        <v>111368037</v>
       </c>
       <c r="B48" t="n">
-        <v>77515</v>
+        <v>89423</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5891,21 +5887,21 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -5915,10 +5911,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>549872.7453947841</v>
+        <v>550138.4038488384</v>
       </c>
       <c r="R48" t="n">
-        <v>7176379.137769157</v>
+        <v>7176475.505636688</v>
       </c>
       <c r="S48" t="n">
         <v>25</v>
@@ -5950,7 +5946,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>12:23</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
@@ -5960,7 +5956,7 @@
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>12:23</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -5987,10 +5983,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111368067</v>
+        <v>111368047</v>
       </c>
       <c r="B49" t="n">
-        <v>89401</v>
+        <v>89405</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6003,21 +5999,21 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>1108</v>
+        <v>1202</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -6027,10 +6023,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>550061.031779538</v>
+        <v>550104.0632435277</v>
       </c>
       <c r="R49" t="n">
-        <v>7176518.281073146</v>
+        <v>7176531.827197511</v>
       </c>
       <c r="S49" t="n">
         <v>25</v>
@@ -6062,7 +6058,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>12:06</t>
+          <t>12:12</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
@@ -6072,7 +6068,7 @@
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>12:06</t>
+          <t>12:12</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -6099,10 +6095,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111368033</v>
+        <v>111368068</v>
       </c>
       <c r="B50" t="n">
-        <v>73689</v>
+        <v>77515</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6115,21 +6111,21 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>308</v>
+        <v>6425</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -6139,10 +6135,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>550093.7441570745</v>
+        <v>550061.031779538</v>
       </c>
       <c r="R50" t="n">
-        <v>7176456.798653707</v>
+        <v>7176518.281073146</v>
       </c>
       <c r="S50" t="n">
         <v>25</v>
@@ -6174,7 +6170,7 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>12:28</t>
+          <t>12:06</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
@@ -6184,7 +6180,7 @@
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>12:28</t>
+          <t>12:06</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -6211,10 +6207,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111368057</v>
+        <v>111368052</v>
       </c>
       <c r="B51" t="n">
-        <v>77515</v>
+        <v>89423</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6227,21 +6223,21 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -6251,10 +6247,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>549928.1908050156</v>
+        <v>549902.2163396301</v>
       </c>
       <c r="R51" t="n">
-        <v>7176263.697660933</v>
+        <v>7176280.379899665</v>
       </c>
       <c r="S51" t="n">
         <v>25</v>
@@ -6286,7 +6282,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>11:24</t>
+          <t>11:29</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
@@ -6296,7 +6292,7 @@
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>11:24</t>
+          <t>11:29</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6323,10 +6319,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111368068</v>
+        <v>111368063</v>
       </c>
       <c r="B52" t="n">
-        <v>77515</v>
+        <v>78605</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6335,25 +6331,25 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>6425</v>
+        <v>6462</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -6363,10 +6359,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>550061.031779538</v>
+        <v>549846.3981210478</v>
       </c>
       <c r="R52" t="n">
-        <v>7176518.281073146</v>
+        <v>7176340.630942217</v>
       </c>
       <c r="S52" t="n">
         <v>25</v>
@@ -6398,7 +6394,7 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>12:06</t>
+          <t>11:36</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
@@ -6408,7 +6404,7 @@
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>12:06</t>
+          <t>11:36</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6435,10 +6431,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111368044</v>
+        <v>111368078</v>
       </c>
       <c r="B53" t="n">
-        <v>77515</v>
+        <v>57196</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6451,34 +6447,38 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>6425</v>
+        <v>206004</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skogshare</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lepus timidus</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr"/>
+          <t>Linnaeus, 1758</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P53" t="inlineStr">
         <is>
           <t>Kojholmen, Ås lm</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>550090.5625663771</v>
+        <v>549936.548302589</v>
       </c>
       <c r="R53" t="n">
-        <v>7176467.867670191</v>
+        <v>7176405.858146392</v>
       </c>
       <c r="S53" t="n">
         <v>25</v>
@@ -6510,7 +6510,7 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>12:19</t>
+          <t>11:48</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>12:19</t>
+          <t>11:48</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6547,10 +6547,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111368024</v>
+        <v>111368035</v>
       </c>
       <c r="B54" t="n">
-        <v>78605</v>
+        <v>81248</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6559,25 +6559,25 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>6462</v>
+        <v>1312</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6587,10 +6587,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>549996.6526590078</v>
+        <v>550127.9977607847</v>
       </c>
       <c r="R54" t="n">
-        <v>7176319.586486283</v>
+        <v>7176457.366965696</v>
       </c>
       <c r="S54" t="n">
         <v>25</v>
@@ -6622,7 +6622,7 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>12:40</t>
+          <t>12:26</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
@@ -6632,7 +6632,7 @@
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>12:40</t>
+          <t>12:26</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6659,7 +6659,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111368056</v>
+        <v>111368036</v>
       </c>
       <c r="B55" t="n">
         <v>77515</v>
@@ -6699,10 +6699,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>549909.1310579075</v>
+        <v>550126.7345429868</v>
       </c>
       <c r="R55" t="n">
-        <v>7176276.644072821</v>
+        <v>7176456.062714714</v>
       </c>
       <c r="S55" t="n">
         <v>25</v>
@@ -6734,7 +6734,7 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>12:26</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
@@ -6744,7 +6744,7 @@
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>12:26</t>
         </is>
       </c>
       <c r="AD55" t="b">

--- a/artfynd/A 39168-2021.xlsx
+++ b/artfynd/A 39168-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111368041</v>
+        <v>111368071</v>
       </c>
       <c r="B2" t="n">
-        <v>85715</v>
+        <v>73689</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>510</v>
+        <v>308</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>550134.6000315297</v>
+        <v>549966.7510875309</v>
       </c>
       <c r="R2" t="n">
-        <v>7176472.44817721</v>
+        <v>7176470.094432743</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -755,7 +755,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>12:22</t>
+          <t>12:01</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -765,7 +765,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>12:22</t>
+          <t>12:01</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111368060</v>
+        <v>111368065</v>
       </c>
       <c r="B3" t="n">
-        <v>56543</v>
+        <v>89423</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,43 +808,34 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>103021</v>
+        <v>5432</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>upprörd, varnande</t>
-        </is>
-      </c>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t>Kojholmen, Ås lm</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>549874.1005536993</v>
+        <v>550079.7716065857</v>
       </c>
       <c r="R3" t="n">
-        <v>7176374.882427582</v>
+        <v>7176524.580282663</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -876,7 +867,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>12:08</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -886,7 +877,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>12:08</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -913,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111368029</v>
+        <v>111368064</v>
       </c>
       <c r="B4" t="n">
-        <v>77515</v>
+        <v>89423</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -929,21 +920,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -953,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>550030.3127802074</v>
+        <v>549829.9126936665</v>
       </c>
       <c r="R4" t="n">
-        <v>7176356.077197819</v>
+        <v>7176301.430993037</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -988,7 +979,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>12:34</t>
+          <t>11:34</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -998,7 +989,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>12:34</t>
+          <t>11:34</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1025,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111368064</v>
+        <v>111368056</v>
       </c>
       <c r="B5" t="n">
-        <v>89423</v>
+        <v>77515</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1041,21 +1032,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1065,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>549829.9126936665</v>
+        <v>549909.1310579075</v>
       </c>
       <c r="R5" t="n">
-        <v>7176301.430993037</v>
+        <v>7176276.644072821</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1100,7 +1091,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>11:34</t>
+          <t>11:26</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1110,7 +1101,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>11:34</t>
+          <t>11:26</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1137,10 +1128,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111368031</v>
+        <v>111368075</v>
       </c>
       <c r="B6" t="n">
-        <v>77515</v>
+        <v>78446</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1153,21 +1144,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6425</v>
+        <v>2080</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skorpgelélav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Rostania occultata</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Bagl.) Otálora, P.M.Jørg. &amp; Wedin</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1177,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>550062.8222276447</v>
+        <v>549966.1457474855</v>
       </c>
       <c r="R6" t="n">
-        <v>7176384.421149604</v>
+        <v>7176429.019260814</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1212,7 +1203,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>12:32</t>
+          <t>11:56</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1222,7 +1213,12 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>12:32</t>
+          <t>11:56</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>Rostania pallida</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1233,6 +1229,16 @@
       </c>
       <c r="AG6" t="b">
         <v>0</v>
+      </c>
+      <c r="AQ6" t="inlineStr">
+        <is>
+          <t>Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AR6" t="inlineStr">
+        <is>
+          <t>2306231156</t>
+        </is>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
@@ -1249,10 +1255,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111368033</v>
+        <v>111368040</v>
       </c>
       <c r="B7" t="n">
-        <v>73689</v>
+        <v>77515</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1265,21 +1271,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>308</v>
+        <v>6425</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1289,10 +1295,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>550093.7441570745</v>
+        <v>550140.4310960311</v>
       </c>
       <c r="R7" t="n">
-        <v>7176456.798653707</v>
+        <v>7176482.383431778</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1324,7 +1330,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>12:28</t>
+          <t>12:23</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1334,7 +1340,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>12:28</t>
+          <t>12:23</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1361,10 +1367,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111368046</v>
+        <v>111368026</v>
       </c>
       <c r="B8" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1377,34 +1383,39 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P8" t="inlineStr">
         <is>
           <t>Kojholmen, Ås lm</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>550103.3250106032</v>
+        <v>550021.0272902437</v>
       </c>
       <c r="R8" t="n">
-        <v>7176498.877932535</v>
+        <v>7176347.795661078</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1436,7 +1447,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>12:35</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1446,7 +1457,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>12:35</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1473,7 +1484,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111368066</v>
+        <v>111368057</v>
       </c>
       <c r="B9" t="n">
         <v>77515</v>
@@ -1513,10 +1524,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>550076.8595679611</v>
+        <v>549928.1908050156</v>
       </c>
       <c r="R9" t="n">
-        <v>7176519.398969295</v>
+        <v>7176263.697660933</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1548,7 +1559,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>12:08</t>
+          <t>11:24</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1558,7 +1569,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>12:08</t>
+          <t>11:24</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1585,10 +1596,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111368030</v>
+        <v>111368024</v>
       </c>
       <c r="B10" t="n">
-        <v>56398</v>
+        <v>78605</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1597,43 +1608,38 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100109</v>
+        <v>6462</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P10" t="inlineStr">
         <is>
           <t>Kojholmen, Ås lm</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>550062.8222276447</v>
+        <v>549996.6526590078</v>
       </c>
       <c r="R10" t="n">
-        <v>7176384.421149604</v>
+        <v>7176319.586486283</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1665,7 +1671,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>12:32</t>
+          <t>12:40</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1675,7 +1681,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>12:32</t>
+          <t>12:40</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1702,10 +1708,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111368048</v>
+        <v>111368063</v>
       </c>
       <c r="B11" t="n">
-        <v>77515</v>
+        <v>78605</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1714,25 +1720,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>6462</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1742,10 +1748,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>550102.7432948623</v>
+        <v>549846.3981210478</v>
       </c>
       <c r="R11" t="n">
-        <v>7176533.944055461</v>
+        <v>7176340.630942217</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1777,7 +1783,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>12:11</t>
+          <t>11:36</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1787,7 +1793,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>12:11</t>
+          <t>11:36</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1814,10 +1820,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111368038</v>
+        <v>111368080</v>
       </c>
       <c r="B12" t="n">
-        <v>96368</v>
+        <v>77515</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1826,25 +1832,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>221952</v>
+        <v>6425</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1854,10 +1860,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>550140.4310960311</v>
+        <v>549936.548302589</v>
       </c>
       <c r="R12" t="n">
-        <v>7176482.383431778</v>
+        <v>7176405.858146392</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1889,7 +1895,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>12:23</t>
+          <t>11:48</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1899,7 +1905,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>12:23</t>
+          <t>11:48</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1926,10 +1932,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111368073</v>
+        <v>111368068</v>
       </c>
       <c r="B13" t="n">
-        <v>89405</v>
+        <v>77515</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1942,21 +1948,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1966,10 +1972,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>549986.9422517557</v>
+        <v>550061.031779538</v>
       </c>
       <c r="R13" t="n">
-        <v>7176440.485243178</v>
+        <v>7176518.281073146</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2001,7 +2007,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:06</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2011,7 +2017,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:06</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2038,10 +2044,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111368054</v>
+        <v>111368077</v>
       </c>
       <c r="B14" t="n">
-        <v>95532</v>
+        <v>77515</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2050,25 +2056,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>221945</v>
+        <v>6425</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2078,10 +2084,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>549910.0086488514</v>
+        <v>549958.3678805742</v>
       </c>
       <c r="R14" t="n">
-        <v>7176275.375214851</v>
+        <v>7176433.168246322</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2113,7 +2119,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>11:56</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2123,7 +2129,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>11:56</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2150,10 +2156,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111368067</v>
+        <v>111368074</v>
       </c>
       <c r="B15" t="n">
-        <v>89401</v>
+        <v>77515</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2166,21 +2172,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1108</v>
+        <v>6425</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2190,10 +2196,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>550061.031779538</v>
+        <v>549991.2735226378</v>
       </c>
       <c r="R15" t="n">
-        <v>7176518.281073146</v>
+        <v>7176437.562583845</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2225,7 +2231,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>12:06</t>
+          <t>11:59</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2235,7 +2241,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>12:06</t>
+          <t>11:59</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2262,10 +2268,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111368034</v>
+        <v>111368082</v>
       </c>
       <c r="B16" t="n">
-        <v>77515</v>
+        <v>89405</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2278,21 +2284,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2302,10 +2308,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>550092.9020021709</v>
+        <v>549887.6681565105</v>
       </c>
       <c r="R16" t="n">
-        <v>7176455.929162641</v>
+        <v>7176383.234151412</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2337,7 +2343,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>12:28</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2347,7 +2353,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>12:28</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2374,10 +2380,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111368076</v>
+        <v>111368059</v>
       </c>
       <c r="B17" t="n">
-        <v>78605</v>
+        <v>73694</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2386,25 +2392,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6462</v>
+        <v>6486</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Skuggnål</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Chaenotheca sphaerocephala</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>Nádv.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2414,10 +2420,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>549966.1103741666</v>
+        <v>549878.7893641718</v>
       </c>
       <c r="R17" t="n">
-        <v>7176431.157499645</v>
+        <v>7176376.243170704</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2449,7 +2455,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>11:56</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2459,7 +2465,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>11:56</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2486,7 +2492,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111368044</v>
+        <v>111368081</v>
       </c>
       <c r="B18" t="n">
         <v>77515</v>
@@ -2526,10 +2532,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>550090.5625663771</v>
+        <v>549887.6681565105</v>
       </c>
       <c r="R18" t="n">
-        <v>7176467.867670191</v>
+        <v>7176383.234151412</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2561,7 +2567,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>12:19</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2571,7 +2577,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>12:19</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2710,10 +2716,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111368025</v>
+        <v>111368033</v>
       </c>
       <c r="B20" t="n">
-        <v>77515</v>
+        <v>73689</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2726,21 +2732,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6425</v>
+        <v>308</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2750,10 +2756,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>549996.6526590078</v>
+        <v>550093.7441570745</v>
       </c>
       <c r="R20" t="n">
-        <v>7176319.586486283</v>
+        <v>7176456.798653707</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2785,7 +2791,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>12:39</t>
+          <t>12:28</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2795,7 +2801,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>12:39</t>
+          <t>12:28</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2822,10 +2828,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111368024</v>
+        <v>111368051</v>
       </c>
       <c r="B21" t="n">
-        <v>78605</v>
+        <v>77515</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2834,25 +2840,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6462</v>
+        <v>6425</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2862,10 +2868,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>549996.6526590078</v>
+        <v>549879.900762578</v>
       </c>
       <c r="R21" t="n">
-        <v>7176319.586486283</v>
+        <v>7176283.005802887</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -2897,7 +2903,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>12:40</t>
+          <t>11:31</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2907,7 +2913,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>12:40</t>
+          <t>11:31</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2934,7 +2940,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111368056</v>
+        <v>111368031</v>
       </c>
       <c r="B22" t="n">
         <v>77515</v>
@@ -2974,10 +2980,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>549909.1310579075</v>
+        <v>550062.8222276447</v>
       </c>
       <c r="R22" t="n">
-        <v>7176276.644072821</v>
+        <v>7176384.421149604</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -3009,7 +3015,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>12:32</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3019,7 +3025,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>12:32</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3046,7 +3052,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111368057</v>
+        <v>111368027</v>
       </c>
       <c r="B23" t="n">
         <v>77515</v>
@@ -3086,10 +3092,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>549928.1908050156</v>
+        <v>550021.0131254582</v>
       </c>
       <c r="R23" t="n">
-        <v>7176263.697660933</v>
+        <v>7176348.650979794</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>
@@ -3121,7 +3127,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>11:24</t>
+          <t>12:35</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3131,7 +3137,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>11:24</t>
+          <t>12:35</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3158,10 +3164,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111368040</v>
+        <v>111368041</v>
       </c>
       <c r="B24" t="n">
-        <v>77515</v>
+        <v>85715</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3174,21 +3180,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6425</v>
+        <v>510</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3198,10 +3204,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>550140.4310960311</v>
+        <v>550134.6000315297</v>
       </c>
       <c r="R24" t="n">
-        <v>7176482.383431778</v>
+        <v>7176472.44817721</v>
       </c>
       <c r="S24" t="n">
         <v>25</v>
@@ -3233,7 +3239,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>12:23</t>
+          <t>12:22</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3243,7 +3249,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>12:23</t>
+          <t>12:22</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3270,10 +3276,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111368072</v>
+        <v>111368054</v>
       </c>
       <c r="B25" t="n">
-        <v>77515</v>
+        <v>95532</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3282,25 +3288,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6425</v>
+        <v>221945</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3310,10 +3316,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>549964.6102468905</v>
+        <v>549910.0086488514</v>
       </c>
       <c r="R25" t="n">
-        <v>7176470.059016126</v>
+        <v>7176275.375214851</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3345,7 +3351,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>12:01</t>
+          <t>11:26</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3355,7 +3361,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>12:01</t>
+          <t>11:26</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3382,7 +3388,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111368050</v>
+        <v>111368055</v>
       </c>
       <c r="B26" t="n">
         <v>73696</v>
@@ -3422,10 +3428,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>549878.9243151343</v>
+        <v>549910.0227821248</v>
       </c>
       <c r="R26" t="n">
-        <v>7176290.26201662</v>
+        <v>7176274.519875553</v>
       </c>
       <c r="S26" t="n">
         <v>25</v>
@@ -3457,7 +3463,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>11:31</t>
+          <t>11:26</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3467,7 +3473,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>11:31</t>
+          <t>11:26</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3494,10 +3500,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111368059</v>
+        <v>111368062</v>
       </c>
       <c r="B27" t="n">
-        <v>73694</v>
+        <v>78542</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3506,25 +3512,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6486</v>
+        <v>229748</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Skuggnål</t>
+          <t>Gytterlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Chaenotheca sphaerocephala</t>
+          <t>Protopannaria pezizoides</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Nádv.</t>
+          <t>(Weber) P.M.Jørg. &amp; S.Ekman</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3534,10 +3540,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>549878.7893641718</v>
+        <v>549845.5417482131</v>
       </c>
       <c r="R27" t="n">
-        <v>7176376.243170704</v>
+        <v>7176340.616809647</v>
       </c>
       <c r="S27" t="n">
         <v>25</v>
@@ -3569,7 +3575,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>11:36</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3579,7 +3585,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>11:36</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3606,10 +3612,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111368080</v>
+        <v>111368069</v>
       </c>
       <c r="B28" t="n">
-        <v>77515</v>
+        <v>89419</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3622,21 +3628,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6425</v>
+        <v>1204</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3646,10 +3652,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>549936.548302589</v>
+        <v>550009.0934819671</v>
       </c>
       <c r="R28" t="n">
-        <v>7176405.858146392</v>
+        <v>7176499.454964816</v>
       </c>
       <c r="S28" t="n">
         <v>25</v>
@@ -3681,7 +3687,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>11:48</t>
+          <t>12:04</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3691,7 +3697,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>11:48</t>
+          <t>12:04</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3718,10 +3724,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111368027</v>
+        <v>111368076</v>
       </c>
       <c r="B29" t="n">
-        <v>77515</v>
+        <v>78605</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3730,25 +3736,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6425</v>
+        <v>6462</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3758,10 +3764,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>550021.0131254582</v>
+        <v>549966.1103741666</v>
       </c>
       <c r="R29" t="n">
-        <v>7176348.650979794</v>
+        <v>7176431.157499645</v>
       </c>
       <c r="S29" t="n">
         <v>25</v>
@@ -3793,7 +3799,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>11:56</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3803,7 +3809,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>11:56</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3830,7 +3836,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111368065</v>
+        <v>111368037</v>
       </c>
       <c r="B30" t="n">
         <v>89423</v>
@@ -3870,10 +3876,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>550079.7716065857</v>
+        <v>550138.4038488384</v>
       </c>
       <c r="R30" t="n">
-        <v>7176524.580282663</v>
+        <v>7176475.505636688</v>
       </c>
       <c r="S30" t="n">
         <v>25</v>
@@ -3905,7 +3911,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>12:08</t>
+          <t>12:23</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -3915,7 +3921,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>12:08</t>
+          <t>12:23</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3942,10 +3948,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111368028</v>
+        <v>111368070</v>
       </c>
       <c r="B31" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3958,39 +3964,34 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P31" t="inlineStr">
         <is>
           <t>Kojholmen, Ås lm</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>550031.1691488524</v>
+        <v>550009.0934819671</v>
       </c>
       <c r="R31" t="n">
-        <v>7176356.091382794</v>
+        <v>7176499.454964816</v>
       </c>
       <c r="S31" t="n">
         <v>25</v>
@@ -4022,7 +4023,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>12:34</t>
+          <t>12:04</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -4032,7 +4033,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>12:34</t>
+          <t>12:04</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4059,7 +4060,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111368077</v>
+        <v>111368046</v>
       </c>
       <c r="B32" t="n">
         <v>77515</v>
@@ -4099,10 +4100,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>549958.3678805742</v>
+        <v>550103.3250106032</v>
       </c>
       <c r="R32" t="n">
-        <v>7176433.168246322</v>
+        <v>7176498.877932535</v>
       </c>
       <c r="S32" t="n">
         <v>25</v>
@@ -4134,7 +4135,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>11:56</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4144,7 +4145,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>11:56</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4283,10 +4284,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111368070</v>
+        <v>111368052</v>
       </c>
       <c r="B34" t="n">
-        <v>77515</v>
+        <v>89423</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4299,21 +4300,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4323,10 +4324,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>550009.0934819671</v>
+        <v>549902.2163396301</v>
       </c>
       <c r="R34" t="n">
-        <v>7176499.454964816</v>
+        <v>7176280.379899665</v>
       </c>
       <c r="S34" t="n">
         <v>25</v>
@@ -4358,7 +4359,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>11:29</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4368,7 +4369,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>11:29</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4395,7 +4396,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111368074</v>
+        <v>111368044</v>
       </c>
       <c r="B35" t="n">
         <v>77515</v>
@@ -4435,10 +4436,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>549991.2735226378</v>
+        <v>550090.5625663771</v>
       </c>
       <c r="R35" t="n">
-        <v>7176437.562583845</v>
+        <v>7176467.867670191</v>
       </c>
       <c r="S35" t="n">
         <v>25</v>
@@ -4470,7 +4471,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:19</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4480,7 +4481,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>12:19</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4507,10 +4508,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111368069</v>
+        <v>111368078</v>
       </c>
       <c r="B36" t="n">
-        <v>89419</v>
+        <v>57196</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4523,34 +4524,38 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1204</v>
+        <v>206004</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Skogshare</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Lepus timidus</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr"/>
+          <t>Linnaeus, 1758</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P36" t="inlineStr">
         <is>
           <t>Kojholmen, Ås lm</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>550009.0934819671</v>
+        <v>549936.548302589</v>
       </c>
       <c r="R36" t="n">
-        <v>7176499.454964816</v>
+        <v>7176405.858146392</v>
       </c>
       <c r="S36" t="n">
         <v>25</v>
@@ -4582,7 +4587,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>11:48</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4592,7 +4597,7 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>11:48</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4619,10 +4624,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111368062</v>
+        <v>111368072</v>
       </c>
       <c r="B37" t="n">
-        <v>78542</v>
+        <v>77515</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4631,25 +4636,25 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>229748</v>
+        <v>6425</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Gytterlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Protopannaria pezizoides</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Weber) P.M.Jørg. &amp; S.Ekman</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4659,10 +4664,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>549845.5417482131</v>
+        <v>549964.6102468905</v>
       </c>
       <c r="R37" t="n">
-        <v>7176340.616809647</v>
+        <v>7176470.059016126</v>
       </c>
       <c r="S37" t="n">
         <v>25</v>
@@ -4694,7 +4699,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>12:01</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -4704,7 +4709,7 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>12:01</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4731,10 +4736,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111368081</v>
+        <v>111368053</v>
       </c>
       <c r="B38" t="n">
-        <v>77515</v>
+        <v>73701</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4747,21 +4752,21 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6425</v>
+        <v>1467</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rödbrun blekspik</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Sclerophora coniophaea</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Norman) J.Mattsson &amp; Middelb.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4771,10 +4776,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>549887.6681565105</v>
+        <v>549900.8964279072</v>
       </c>
       <c r="R38" t="n">
-        <v>7176383.234151412</v>
+        <v>7176282.497020906</v>
       </c>
       <c r="S38" t="n">
         <v>25</v>
@@ -4806,7 +4811,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -4816,7 +4821,7 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4843,7 +4848,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111368026</v>
+        <v>111368028</v>
       </c>
       <c r="B39" t="n">
         <v>56398</v>
@@ -4888,10 +4893,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>550021.0272902437</v>
+        <v>550031.1691488524</v>
       </c>
       <c r="R39" t="n">
-        <v>7176347.795661078</v>
+        <v>7176356.091382794</v>
       </c>
       <c r="S39" t="n">
         <v>25</v>
@@ -4923,7 +4928,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:34</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -4933,7 +4938,7 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>12:34</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -4960,10 +4965,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111368071</v>
+        <v>111368038</v>
       </c>
       <c r="B40" t="n">
-        <v>73689</v>
+        <v>96368</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -4972,25 +4977,25 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>308</v>
+        <v>221952</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -5000,10 +5005,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>549966.7510875309</v>
+        <v>550140.4310960311</v>
       </c>
       <c r="R40" t="n">
-        <v>7176470.094432743</v>
+        <v>7176482.383431778</v>
       </c>
       <c r="S40" t="n">
         <v>25</v>
@@ -5035,7 +5040,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>12:01</t>
+          <t>12:23</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
@@ -5045,7 +5050,7 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>12:01</t>
+          <t>12:23</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5072,10 +5077,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111368082</v>
+        <v>111368030</v>
       </c>
       <c r="B41" t="n">
-        <v>89405</v>
+        <v>56398</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5088,34 +5093,39 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P41" t="inlineStr">
         <is>
           <t>Kojholmen, Ås lm</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>549887.6681565105</v>
+        <v>550062.8222276447</v>
       </c>
       <c r="R41" t="n">
-        <v>7176383.234151412</v>
+        <v>7176384.421149604</v>
       </c>
       <c r="S41" t="n">
         <v>25</v>
@@ -5147,7 +5157,7 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>12:32</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
@@ -5157,7 +5167,7 @@
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>12:32</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5184,10 +5194,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111368045</v>
+        <v>111368036</v>
       </c>
       <c r="B42" t="n">
-        <v>89405</v>
+        <v>77515</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5200,21 +5210,21 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5224,10 +5234,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>550103.3250106032</v>
+        <v>550126.7345429868</v>
       </c>
       <c r="R42" t="n">
-        <v>7176498.877932535</v>
+        <v>7176456.062714714</v>
       </c>
       <c r="S42" t="n">
         <v>25</v>
@@ -5259,7 +5269,7 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>12:26</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
@@ -5269,7 +5279,7 @@
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>12:26</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5296,10 +5306,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111368053</v>
+        <v>111368034</v>
       </c>
       <c r="B43" t="n">
-        <v>73701</v>
+        <v>77515</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5312,21 +5322,21 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>1467</v>
+        <v>6425</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Rödbrun blekspik</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Sclerophora coniophaea</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Norman) J.Mattsson &amp; Middelb.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5336,10 +5346,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>549900.8964279072</v>
+        <v>550092.9020021709</v>
       </c>
       <c r="R43" t="n">
-        <v>7176282.497020906</v>
+        <v>7176455.929162641</v>
       </c>
       <c r="S43" t="n">
         <v>25</v>
@@ -5371,7 +5381,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>12:28</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
@@ -5381,7 +5391,7 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>12:28</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5408,10 +5418,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111368055</v>
+        <v>111368067</v>
       </c>
       <c r="B44" t="n">
-        <v>73696</v>
+        <v>89401</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5424,21 +5434,21 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>6440</v>
+        <v>1108</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5448,10 +5458,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>549910.0227821248</v>
+        <v>550061.031779538</v>
       </c>
       <c r="R44" t="n">
-        <v>7176274.519875553</v>
+        <v>7176518.281073146</v>
       </c>
       <c r="S44" t="n">
         <v>25</v>
@@ -5483,7 +5493,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>12:06</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
@@ -5493,7 +5503,7 @@
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>12:06</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5520,7 +5530,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111368049</v>
+        <v>111368073</v>
       </c>
       <c r="B45" t="n">
         <v>89405</v>
@@ -5560,10 +5570,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>550076.0670580198</v>
+        <v>549986.9422517557</v>
       </c>
       <c r="R45" t="n">
-        <v>7176515.536051848</v>
+        <v>7176440.485243178</v>
       </c>
       <c r="S45" t="n">
         <v>25</v>
@@ -5595,7 +5605,7 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>11:59</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
@@ -5605,7 +5615,7 @@
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>11:59</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5632,10 +5642,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111368075</v>
+        <v>111368060</v>
       </c>
       <c r="B46" t="n">
-        <v>78446</v>
+        <v>56543</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5648,34 +5658,43 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>2080</v>
+        <v>103021</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Skorpgelélav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Rostania occultata</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Bagl.) Otálora, P.M.Jørg. &amp; Wedin</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>upprörd, varnande</t>
+        </is>
+      </c>
       <c r="P46" t="inlineStr">
         <is>
           <t>Kojholmen, Ås lm</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>549966.1457474855</v>
+        <v>549874.1005536993</v>
       </c>
       <c r="R46" t="n">
-        <v>7176429.019260814</v>
+        <v>7176374.882427582</v>
       </c>
       <c r="S46" t="n">
         <v>25</v>
@@ -5707,7 +5726,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>11:56</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
@@ -5717,12 +5736,7 @@
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>11:56</t>
-        </is>
-      </c>
-      <c r="AC46" t="inlineStr">
-        <is>
-          <t>Rostania pallida</t>
+          <t>11:43</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5733,16 +5747,6 @@
       </c>
       <c r="AG46" t="b">
         <v>0</v>
-      </c>
-      <c r="AQ46" t="inlineStr">
-        <is>
-          <t>Isak Vahlström</t>
-        </is>
-      </c>
-      <c r="AR46" t="inlineStr">
-        <is>
-          <t>2306231156</t>
-        </is>
       </c>
       <c r="AT46" t="inlineStr"/>
       <c r="AW46" t="inlineStr">
@@ -5759,7 +5763,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111368051</v>
+        <v>111368066</v>
       </c>
       <c r="B47" t="n">
         <v>77515</v>
@@ -5799,10 +5803,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>549879.900762578</v>
+        <v>550076.8595679611</v>
       </c>
       <c r="R47" t="n">
-        <v>7176283.005802887</v>
+        <v>7176519.398969295</v>
       </c>
       <c r="S47" t="n">
         <v>25</v>
@@ -5834,7 +5838,7 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>11:31</t>
+          <t>12:08</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
@@ -5844,7 +5848,7 @@
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>11:31</t>
+          <t>12:08</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -5871,10 +5875,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111368037</v>
+        <v>111368049</v>
       </c>
       <c r="B48" t="n">
-        <v>89423</v>
+        <v>89405</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5887,21 +5891,21 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>5432</v>
+        <v>1202</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -5911,10 +5915,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>550138.4038488384</v>
+        <v>550076.0670580198</v>
       </c>
       <c r="R48" t="n">
-        <v>7176475.505636688</v>
+        <v>7176515.536051848</v>
       </c>
       <c r="S48" t="n">
         <v>25</v>
@@ -5946,7 +5950,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>12:23</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
@@ -5956,7 +5960,7 @@
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>12:23</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -5983,10 +5987,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111368047</v>
+        <v>111368029</v>
       </c>
       <c r="B49" t="n">
-        <v>89405</v>
+        <v>77515</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -5999,21 +6003,21 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -6023,10 +6027,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>550104.0632435277</v>
+        <v>550030.3127802074</v>
       </c>
       <c r="R49" t="n">
-        <v>7176531.827197511</v>
+        <v>7176356.077197819</v>
       </c>
       <c r="S49" t="n">
         <v>25</v>
@@ -6058,7 +6062,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>12:12</t>
+          <t>12:34</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
@@ -6068,7 +6072,7 @@
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>12:12</t>
+          <t>12:34</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -6095,7 +6099,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111368068</v>
+        <v>111368048</v>
       </c>
       <c r="B50" t="n">
         <v>77515</v>
@@ -6135,10 +6139,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>550061.031779538</v>
+        <v>550102.7432948623</v>
       </c>
       <c r="R50" t="n">
-        <v>7176518.281073146</v>
+        <v>7176533.944055461</v>
       </c>
       <c r="S50" t="n">
         <v>25</v>
@@ -6170,7 +6174,7 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>12:06</t>
+          <t>12:11</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
@@ -6180,7 +6184,7 @@
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>12:06</t>
+          <t>12:11</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -6207,10 +6211,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111368052</v>
+        <v>111368045</v>
       </c>
       <c r="B51" t="n">
-        <v>89423</v>
+        <v>89405</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6223,21 +6227,21 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>5432</v>
+        <v>1202</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -6247,10 +6251,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>549902.2163396301</v>
+        <v>550103.3250106032</v>
       </c>
       <c r="R51" t="n">
-        <v>7176280.379899665</v>
+        <v>7176498.877932535</v>
       </c>
       <c r="S51" t="n">
         <v>25</v>
@@ -6282,7 +6286,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>11:29</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
@@ -6292,7 +6296,7 @@
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>11:29</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6319,10 +6323,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111368063</v>
+        <v>111368050</v>
       </c>
       <c r="B52" t="n">
-        <v>78605</v>
+        <v>73696</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6331,25 +6335,25 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>6462</v>
+        <v>6440</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -6359,10 +6363,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>549846.3981210478</v>
+        <v>549878.9243151343</v>
       </c>
       <c r="R52" t="n">
-        <v>7176340.630942217</v>
+        <v>7176290.26201662</v>
       </c>
       <c r="S52" t="n">
         <v>25</v>
@@ -6394,7 +6398,7 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>11:31</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
@@ -6404,7 +6408,7 @@
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>11:31</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6431,10 +6435,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111368078</v>
+        <v>111368047</v>
       </c>
       <c r="B53" t="n">
-        <v>57196</v>
+        <v>89405</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6447,38 +6451,34 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>206004</v>
+        <v>1202</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Skogshare</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Lepus timidus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
           <t>Kojholmen, Ås lm</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>549936.548302589</v>
+        <v>550104.0632435277</v>
       </c>
       <c r="R53" t="n">
-        <v>7176405.858146392</v>
+        <v>7176531.827197511</v>
       </c>
       <c r="S53" t="n">
         <v>25</v>
@@ -6510,7 +6510,7 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>11:48</t>
+          <t>12:12</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>11:48</t>
+          <t>12:12</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6547,10 +6547,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111368035</v>
+        <v>111368025</v>
       </c>
       <c r="B54" t="n">
-        <v>81248</v>
+        <v>77515</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6563,21 +6563,21 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>1312</v>
+        <v>6425</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6587,10 +6587,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>550127.9977607847</v>
+        <v>549996.6526590078</v>
       </c>
       <c r="R54" t="n">
-        <v>7176457.366965696</v>
+        <v>7176319.586486283</v>
       </c>
       <c r="S54" t="n">
         <v>25</v>
@@ -6622,7 +6622,7 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>12:26</t>
+          <t>12:39</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
@@ -6632,7 +6632,7 @@
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>12:26</t>
+          <t>12:39</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6659,10 +6659,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111368036</v>
+        <v>111368035</v>
       </c>
       <c r="B55" t="n">
-        <v>77515</v>
+        <v>81248</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6675,21 +6675,21 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>6425</v>
+        <v>1312</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6699,10 +6699,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>550126.7345429868</v>
+        <v>550127.9977607847</v>
       </c>
       <c r="R55" t="n">
-        <v>7176456.062714714</v>
+        <v>7176457.366965696</v>
       </c>
       <c r="S55" t="n">
         <v>25</v>
